--- a/DE.xlsx
+++ b/DE.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1911">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2244">
   <si>
     <t>AboutApplication</t>
   </si>
@@ -4611,33 +4611,63 @@
     <t>DeviceTypeError</t>
   </si>
   <si>
+    <t>Gerätetypfehler erkannt, möchten Sie diesen korrigieren?</t>
+  </si>
+  <si>
     <t>ChangeHistory</t>
   </si>
   <si>
+    <t>Geschichte der Änderungen</t>
+  </si>
+  <si>
     <t>Toggle</t>
   </si>
   <si>
+    <t>Schalter</t>
+  </si>
+  <si>
     <t>CheckAll</t>
   </si>
   <si>
+    <t>Alle wählen</t>
+  </si>
+  <si>
     <t>ToggleSelected</t>
   </si>
   <si>
+    <t>Auswahl umschalten</t>
+  </si>
+  <si>
     <t>UnCheckAll</t>
   </si>
   <si>
+    <t>Alle deaktivieren</t>
+  </si>
+  <si>
     <t>ToggleAll</t>
   </si>
   <si>
+    <t>Alles umschalten</t>
+  </si>
+  <si>
     <t>LoadingFromTerminal</t>
   </si>
   <si>
+    <t>Laden von Daten vom Mobilgerät ...</t>
+  </si>
+  <si>
     <t>UnCheckSelected</t>
   </si>
   <si>
+    <t>Auswahl aufheben</t>
+  </si>
+  <si>
     <t>CheckSelected</t>
   </si>
   <si>
+    <t>Ausgewählte markieren</t>
+  </si>
+  <si>
     <t>MaxFlow</t>
   </si>
   <si>
@@ -4647,6 +4677,9 @@
     <t>KEY_1</t>
   </si>
   <si>
+    <t>Benutzer storniert</t>
+  </si>
+  <si>
     <t>Inkasent.Terminals.Android</t>
   </si>
   <si>
@@ -4656,537 +4689,1038 @@
     <t>KEY_10</t>
   </si>
   <si>
+    <t>Schwellenspannung</t>
+  </si>
+  <si>
     <t>KEY_100</t>
   </si>
   <si>
+    <t>Funknummer: {0} Hinweise: {1}</t>
+  </si>
+  <si>
     <t>KEY_101</t>
   </si>
   <si>
+    <t>Wasserzählernummer:</t>
+  </si>
+  <si>
     <t>KEY_102</t>
   </si>
   <si>
+    <t>Volumen:</t>
+  </si>
+  <si>
     <t>KEY_103</t>
   </si>
   <si>
+    <t>Monatsvolumen</t>
+  </si>
+  <si>
     <t>KEY_104</t>
   </si>
   <si>
+    <t>Rückstromvolumen</t>
+  </si>
+  <si>
     <t>KEY_105</t>
   </si>
   <si>
+    <t>Von:</t>
+  </si>
+  <si>
     <t>KEY_106</t>
   </si>
   <si>
+    <t>Parameter werden gelesen ...</t>
+  </si>
+  <si>
     <t>KEY_107</t>
   </si>
   <si>
+    <t xml:space="preserve">Lesen: </t>
+  </si>
+  <si>
     <t>KEY_108</t>
   </si>
   <si>
+    <t>Vorgang abgebrochen</t>
+  </si>
+  <si>
     <t>KEY_109</t>
   </si>
   <si>
+    <t>Vorgang abgeschlossen</t>
+  </si>
+  <si>
     <t>KEY_11</t>
   </si>
   <si>
     <t>KEY_110</t>
   </si>
   <si>
+    <t>Vorgang abgeschlossen. RSSI: {0} dBm AFC: {1} kHz</t>
+  </si>
+  <si>
     <t>KEY_111</t>
   </si>
   <si>
+    <t>Osttag des Monats</t>
+  </si>
+  <si>
     <t>KEY_112</t>
   </si>
   <si>
     <t>KEY_113</t>
   </si>
   <si>
+    <t>Daten werden heruntergeladen ...</t>
+  </si>
+  <si>
     <t>KEY_114</t>
   </si>
   <si>
+    <t>Verbinden</t>
+  </si>
+  <si>
     <t>KEY_115</t>
   </si>
   <si>
+    <t>In Verbindung gebracht</t>
+  </si>
+  <si>
     <t>KEY_116</t>
   </si>
   <si>
+    <t>Verbunden mit wM-Bus Konverter</t>
+  </si>
+  <si>
     <t>KEY_117</t>
   </si>
   <si>
+    <t>Außerhalb der Reichweite</t>
+  </si>
+  <si>
     <t>KEY_118</t>
   </si>
   <si>
+    <t>Profil mit dem angegebenen Namen existiert.</t>
+  </si>
+  <si>
     <t>KEY_119</t>
   </si>
   <si>
+    <t>Fehler löschen</t>
+  </si>
+  <si>
     <t>KEY_12</t>
   </si>
   <si>
+    <t>TTL 0</t>
+  </si>
+  <si>
     <t>KEY_120</t>
   </si>
   <si>
+    <t>Möchten Sie die Fehlerflags wirklich zurücksetzen?</t>
+  </si>
+  <si>
     <t>KEY_121</t>
   </si>
   <si>
+    <t>Fehler zurückgesetzt</t>
+  </si>
+  <si>
     <t>KEY_122</t>
   </si>
   <si>
+    <t>Möchten Sie die monatlichen Volumendatensätze und den Volumenverlauf wirklich zurücksetzen?</t>
+  </si>
+  <si>
     <t>KEY_123</t>
   </si>
   <si>
+    <t>Lautstärke zurücksetzen</t>
+  </si>
+  <si>
     <t>KEY_124</t>
   </si>
   <si>
+    <t>Trennen</t>
+  </si>
+  <si>
     <t>KEY_125</t>
   </si>
   <si>
+    <t>Getrennt</t>
+  </si>
+  <si>
     <t>KEY_126</t>
   </si>
   <si>
+    <t>Keine Verbindung mit wM-Bus Konverter</t>
+  </si>
+  <si>
     <t>KEY_127</t>
   </si>
   <si>
+    <t>Lesung löschen</t>
+  </si>
+  <si>
     <t>KEY_128</t>
   </si>
   <si>
+    <t>Möchten Sie den aktuellen Messwert wirklich löschen?</t>
+  </si>
+  <si>
     <t>KEY_129</t>
   </si>
   <si>
+    <t>Alt</t>
+  </si>
+  <si>
     <t>KEY_13</t>
   </si>
   <si>
+    <t>Durchströmung Ausfluss</t>
+  </si>
+  <si>
     <t>KEY_130</t>
   </si>
   <si>
+    <t>Alt:</t>
+  </si>
+  <si>
     <t>KEY_131</t>
   </si>
   <si>
+    <t>Summe der Ausfälle der Rückströmung</t>
+  </si>
+  <si>
     <t>KEY_132</t>
   </si>
   <si>
+    <t>Temperatur: {0} ° C</t>
+  </si>
+  <si>
     <t>KEY_133</t>
   </si>
   <si>
+    <t>Route: {0}</t>
+  </si>
+  <si>
     <t>KEY_134</t>
   </si>
   <si>
+    <t>Route auswählen.</t>
+  </si>
+  <si>
     <t>KEY_135</t>
   </si>
   <si>
+    <t>Verbindung wird hergestellt ...</t>
+  </si>
+  <si>
     <t>KEY_136</t>
   </si>
   <si>
+    <t>Fehler werden zurückgesetzt ...</t>
+  </si>
+  <si>
     <t>KEY_137</t>
   </si>
   <si>
+    <t>Lautstärke wird zurückgesetzt ...</t>
+  </si>
+  <si>
     <t>KEY_138</t>
   </si>
   <si>
     <t>KEY_139</t>
   </si>
   <si>
+    <t>Möchten Sie das Gebäude {0} wirklich löschen?</t>
+  </si>
+  <si>
     <t>KEY_14</t>
   </si>
   <si>
     <t>KEY_140</t>
   </si>
   <si>
+    <t>Zähler löschen</t>
+  </si>
+  <si>
     <t>KEY_141</t>
   </si>
   <si>
+    <t>Möchten Sie den Zähler {0} wirklich löschen?</t>
+  </si>
+  <si>
     <t>KEY_142</t>
   </si>
   <si>
+    <t>Möchten Sie {0} wirklich löschen?</t>
+  </si>
+  <si>
     <t>KEY_143</t>
   </si>
   <si>
+    <t>Räumlichkeiten löschen</t>
+  </si>
+  <si>
     <t>KEY_144</t>
   </si>
   <si>
     <t>KEY_145</t>
   </si>
   <si>
+    <t>Möchten Sie das Bild {0} wirklich löschen?</t>
+  </si>
+  <si>
     <t>KEY_146</t>
   </si>
   <si>
+    <t>Rahmen löschen</t>
+  </si>
+  <si>
     <t>KEY_147</t>
   </si>
   <si>
+    <t>Möchten Sie den Hauptzähler {0} wirklich löschen?</t>
+  </si>
+  <si>
     <t>KEY_148</t>
   </si>
   <si>
+    <t>Hauptzähler löschen</t>
+  </si>
+  <si>
     <t>KEY_149</t>
   </si>
   <si>
+    <t>Profil löschen</t>
+  </si>
+  <si>
     <t>KEY_15</t>
   </si>
   <si>
+    <t>Gerät entfernt</t>
+  </si>
+  <si>
     <t>KEY_150</t>
   </si>
   <si>
+    <t>Möchten Sie das Profil {0} wirklich löschen?</t>
+  </si>
+  <si>
     <t>KEY_151</t>
   </si>
   <si>
+    <t>Bemerkungen:</t>
+  </si>
+  <si>
     <t>KEY_152</t>
   </si>
   <si>
+    <t>Hersteller</t>
+  </si>
+  <si>
     <t>KEY_153</t>
   </si>
   <si>
+    <t>Servicetechniker</t>
+  </si>
+  <si>
     <t>KEY_154</t>
   </si>
   <si>
+    <t>Installateur</t>
+  </si>
+  <si>
     <t>KEY_155</t>
   </si>
   <si>
+    <t>Datensammler</t>
+  </si>
+  <si>
     <t>KEY_156</t>
   </si>
   <si>
+    <t>Benutzer: {0}</t>
+  </si>
+  <si>
     <t>KEY_157</t>
   </si>
   <si>
+    <t>WC</t>
+  </si>
+  <si>
     <t>KEY_158</t>
   </si>
   <si>
+    <t>Lade Profil</t>
+  </si>
+  <si>
     <t>KEY_159</t>
   </si>
   <si>
+    <t>Möchten Sie das Profil {0} wirklich laden?</t>
+  </si>
+  <si>
     <t>KEY_16</t>
   </si>
   <si>
+    <t>Anlegen eines Magnets</t>
+  </si>
+  <si>
     <t>KEY_160</t>
   </si>
   <si>
+    <t>Daten werden geladen</t>
+  </si>
+  <si>
     <t>KEY_161</t>
   </si>
   <si>
+    <t>Softwareversion: {0}</t>
+  </si>
+  <si>
     <t>KEY_162</t>
   </si>
   <si>
+    <t>Geräteversion: {0}</t>
+  </si>
+  <si>
     <t>KEY_163</t>
   </si>
   <si>
+    <t>Möchten Sie das ausgewählte Element wirklich löschen?</t>
+  </si>
+  <si>
     <t>KEY_164</t>
   </si>
   <si>
+    <t>Notwendige Dateien für den Programmablauf fehlen. Versuchen Sie, das Programm erneut zu installieren.</t>
+  </si>
+  <si>
     <t>KEY_165</t>
   </si>
   <si>
+    <t>Terminzeit</t>
+  </si>
+  <si>
     <t>KEY_166</t>
   </si>
   <si>
+    <t>Protokoll</t>
+  </si>
+  <si>
     <t>KEY_167</t>
   </si>
   <si>
+    <t>Fließzeitraum</t>
+  </si>
+  <si>
     <t>KEY_168</t>
   </si>
   <si>
+    <t>Ausflussdauer</t>
+  </si>
+  <si>
     <t>KEY_169</t>
   </si>
   <si>
+    <t>Leistung Datenrahmen CFG</t>
+  </si>
+  <si>
     <t>KEY_17</t>
   </si>
   <si>
+    <t>Batterie erschöpft</t>
+  </si>
+  <si>
     <t>KEY_170</t>
   </si>
   <si>
+    <t>Zeit Datenrahmen CFG</t>
+  </si>
+  <si>
     <t>KEY_171</t>
   </si>
   <si>
+    <t>Leistung Datenrahmen WMBUS</t>
+  </si>
+  <si>
     <t>KEY_172</t>
   </si>
   <si>
+    <t>Zeit Datenrahmen WMBUS</t>
+  </si>
+  <si>
     <t>KEY_173</t>
   </si>
   <si>
+    <t>Konfiguration Datenrahmen Wmbus</t>
+  </si>
+  <si>
     <t>KEY_174</t>
   </si>
   <si>
+    <t>Rssi threshold</t>
+  </si>
+  <si>
     <t>KEY_175</t>
   </si>
   <si>
+    <t>Aktuell</t>
+  </si>
+  <si>
     <t>KEY_176</t>
   </si>
   <si>
+    <t>Betriebstage</t>
+  </si>
+  <si>
     <t>KEY_177</t>
   </si>
   <si>
+    <t>Uhrzeit Einschalten</t>
+  </si>
+  <si>
     <t>KEY_178</t>
   </si>
   <si>
+    <t>Uhrzeit Ausschalten</t>
+  </si>
+  <si>
     <t>KEY_179</t>
   </si>
   <si>
+    <t>Ausfall</t>
+  </si>
+  <si>
     <t>KEY_18</t>
   </si>
   <si>
+    <t>Starke Beleuchtung wurde festgestellt</t>
+  </si>
+  <si>
     <t>KEY_180</t>
   </si>
   <si>
+    <t>Extr Menge</t>
+  </si>
+  <si>
     <t>KEY_181</t>
   </si>
   <si>
+    <t>Geschichte extr</t>
+  </si>
+  <si>
     <t>KEY_182</t>
   </si>
   <si>
+    <t>Menge bor</t>
+  </si>
+  <si>
     <t>KEY_183</t>
   </si>
   <si>
+    <t>Geschichte bor</t>
+  </si>
+  <si>
     <t>KEY_184</t>
   </si>
   <si>
+    <t>Menge wdr</t>
+  </si>
+  <si>
     <t>KEY_185</t>
   </si>
   <si>
+    <t>Geschichte wdr</t>
+  </si>
+  <si>
     <t>KEY_186</t>
   </si>
   <si>
+    <t>Rückwärts</t>
+  </si>
+  <si>
     <t>KEY_187</t>
   </si>
   <si>
+    <t>Geschichte Spannung</t>
+  </si>
+  <si>
     <t>KEY_188</t>
   </si>
   <si>
+    <t>Zeit Magnet</t>
+  </si>
+  <si>
     <t>KEY_189</t>
   </si>
   <si>
+    <t>Geschichte Magnet</t>
+  </si>
+  <si>
     <t>KEY_19</t>
   </si>
   <si>
     <t>KEY_190</t>
   </si>
   <si>
+    <t>Zeitversagen det3</t>
+  </si>
+  <si>
     <t>KEY_191</t>
   </si>
   <si>
+    <t>Verlaufsfehler det3</t>
+  </si>
+  <si>
     <t>KEY_192</t>
   </si>
   <si>
+    <t>Abnahme Zeit</t>
+  </si>
+  <si>
     <t>KEY_193</t>
   </si>
   <si>
+    <t>Abnahme Geschichte</t>
+  </si>
+  <si>
     <t>KEY_194</t>
   </si>
   <si>
+    <t>Zeitversagen det12</t>
+  </si>
+  <si>
     <t>KEY_195</t>
   </si>
   <si>
+    <t>Verlaufsfehler det12</t>
+  </si>
+  <si>
     <t>KEY_196</t>
   </si>
   <si>
+    <t>Rücksumme</t>
+  </si>
+  <si>
     <t>KEY_197</t>
   </si>
   <si>
+    <t>Reverse Volume Schwelle</t>
+  </si>
+  <si>
     <t>KEY_198</t>
   </si>
   <si>
+    <t>Rück-Geschichte</t>
+  </si>
+  <si>
     <t>KEY_199</t>
   </si>
   <si>
+    <t>Total verloren plus</t>
+  </si>
+  <si>
     <t>KEY_2</t>
   </si>
   <si>
+    <t>Im Programm ist eine kritische Ausnahme aufgetreten, die beendet wird.</t>
+  </si>
+  <si>
     <t>KEY_20</t>
   </si>
   <si>
+    <t>Port zurücksetzen</t>
+  </si>
+  <si>
     <t>KEY_200</t>
   </si>
   <si>
+    <t>Total minus verlieren</t>
+  </si>
+  <si>
     <t>KEY_201</t>
   </si>
   <si>
+    <t>Verlorene Geschichte</t>
+  </si>
+  <si>
     <t>KEY_202</t>
   </si>
   <si>
+    <t>Leck Geschichte</t>
+  </si>
+  <si>
     <t>KEY_203</t>
   </si>
   <si>
+    <t>Summe max plus</t>
+  </si>
+  <si>
     <t>KEY_204</t>
   </si>
   <si>
+    <t>Summe max minus</t>
+  </si>
+  <si>
     <t>KEY_205</t>
   </si>
   <si>
+    <t>Geschichte max</t>
+  </si>
+  <si>
     <t>KEY_206</t>
   </si>
   <si>
+    <t>Höhere Spannung</t>
+  </si>
+  <si>
     <t>KEY_207</t>
   </si>
   <si>
+    <t>Niedrigere Spannung</t>
+  </si>
+  <si>
     <t>KEY_208</t>
   </si>
   <si>
     <t>KEY_209</t>
   </si>
   <si>
+    <t>Temperatur</t>
+  </si>
+  <si>
     <t>KEY_21</t>
   </si>
   <si>
+    <t>Keine Durchströmung vorhanden</t>
+  </si>
+  <si>
     <t>KEY_210</t>
   </si>
   <si>
     <t>KEY_211</t>
   </si>
   <si>
+    <t>Zugriffcode</t>
+  </si>
+  <si>
     <t>KEY_212</t>
   </si>
   <si>
+    <t>Steuerung</t>
+  </si>
+  <si>
     <t>KEY_213</t>
   </si>
   <si>
+    <t>Batterie aktiv (Anzahl der Tage]</t>
+  </si>
+  <si>
     <t>KEY_214</t>
   </si>
   <si>
+    <t>Wert OSCcal</t>
+  </si>
+  <si>
     <t>KEY_215</t>
   </si>
   <si>
+    <t>Diag_det 1/2/3</t>
+  </si>
+  <si>
     <t>KEY_216</t>
   </si>
   <si>
+    <t>Volumengeschichte</t>
+  </si>
+  <si>
     <t>KEY_217</t>
   </si>
   <si>
+    <t>sekundenbezogen</t>
+  </si>
+  <si>
     <t>KEY_218</t>
   </si>
   <si>
+    <t>Maximal</t>
+  </si>
+  <si>
     <t>KEY_219</t>
   </si>
   <si>
+    <t>Durchströmung var</t>
+  </si>
+  <si>
     <t>KEY_22</t>
   </si>
   <si>
+    <t>Ausfall der Melder 1, 2, 3</t>
+  </si>
+  <si>
     <t>KEY_220</t>
   </si>
   <si>
+    <t>Durchströmung gestoppt.</t>
+  </si>
+  <si>
     <t>KEY_221</t>
   </si>
   <si>
+    <t>Def Ausflussmenge</t>
+  </si>
+  <si>
     <t>KEY_222</t>
   </si>
   <si>
+    <t>Zeit ein / aus</t>
+  </si>
+  <si>
     <t>KEY_223</t>
   </si>
   <si>
+    <t>Summe Minus Plus</t>
+  </si>
+  <si>
     <t>KEY_224</t>
   </si>
   <si>
     <t>KEY_225</t>
   </si>
   <si>
+    <t>Geschichte Minimum</t>
+  </si>
+  <si>
     <t>KEY_226</t>
   </si>
   <si>
     <t>KEY_227</t>
   </si>
   <si>
+    <t>Boot-Version</t>
+  </si>
+  <si>
     <t>KEY_228</t>
   </si>
   <si>
+    <t>10sec fließen</t>
+  </si>
+  <si>
     <t>KEY_229</t>
   </si>
   <si>
+    <t>Schwelle Min.</t>
+  </si>
+  <si>
     <t>KEY_23</t>
   </si>
   <si>
+    <t>Ungültiges Passwort</t>
+  </si>
+  <si>
     <t>KEY_230</t>
   </si>
   <si>
+    <t>Schwelle Max.</t>
+  </si>
+  <si>
     <t>KEY_231</t>
   </si>
   <si>
+    <t>Max park tage</t>
+  </si>
+  <si>
     <t>KEY_232</t>
   </si>
   <si>
+    <t>Tag Monatsvolumen</t>
+  </si>
+  <si>
     <t>KEY_233</t>
   </si>
   <si>
+    <t>Beleuchtungsdauer</t>
+  </si>
+  <si>
     <t>KEY_234</t>
   </si>
   <si>
+    <t>Beleuchtung Geschichte</t>
+  </si>
+  <si>
     <t>KEY_235</t>
   </si>
   <si>
+    <t>Zeit Ausfall det123</t>
+  </si>
+  <si>
     <t>KEY_236</t>
   </si>
   <si>
+    <t>Geschichte Ausfall det123</t>
+  </si>
+  <si>
     <t>KEY_237</t>
   </si>
   <si>
+    <t>Durchströmung in der Spitzenzeit</t>
+  </si>
+  <si>
     <t>KEY_238</t>
   </si>
   <si>
+    <t>Detektorenstrom</t>
+  </si>
+  <si>
     <t>KEY_239</t>
   </si>
   <si>
+    <t>Pulsieren</t>
+  </si>
+  <si>
     <t>KEY_24</t>
   </si>
   <si>
+    <t>Keine Antwort vom Funkmodul. Überprüfen Sie, ob die eingegebene Funknummer korrekt ist.</t>
+  </si>
+  <si>
     <t>KEY_240</t>
   </si>
   <si>
+    <t>Möchten Sie sich wirklich abmelden?</t>
+  </si>
+  <si>
     <t>KEY_241</t>
   </si>
   <si>
+    <t>Ausloggen</t>
+  </si>
+  <si>
     <t>KEY_242</t>
   </si>
   <si>
+    <t>Die geschätzte Batterielebensdauer für die angegebene Konfiguration beträgt {0} Jahre</t>
+  </si>
+  <si>
     <t>KEY_243</t>
   </si>
   <si>
+    <t>Hoch</t>
+  </si>
+  <si>
     <t>KEY_244</t>
   </si>
   <si>
     <t>KEY_245</t>
   </si>
   <si>
+    <t>Nach dem Speichern reagiert das aktuelle Datenmodul nicht mehr. Möchtest du weiter machen?</t>
+  </si>
+  <si>
     <t>KEY_246</t>
   </si>
   <si>
+    <t>* Bereich {0} - {1} {2}</t>
+  </si>
+  <si>
     <t>KEY_247</t>
   </si>
   <si>
+    <t>* Bereich {0} ... {1} l</t>
+  </si>
+  <si>
     <t>KEY_248</t>
   </si>
   <si>
+    <t>* Bereich {0} ... {1} l / h</t>
+  </si>
+  <si>
     <t>KEY_249</t>
   </si>
   <si>
+    <t>* Bereich {0} ... {1} m3</t>
+  </si>
+  <si>
     <t>KEY_25</t>
   </si>
   <si>
+    <t>Keine Bestätigung von Bluetooth. Wenn das Problem weiterhin besteht, überprüfen Sie die Bluetooth-Verbindung.</t>
+  </si>
+  <si>
     <t>KEY_250</t>
   </si>
   <si>
+    <t>* Bereich {0} ... {1} min</t>
+  </si>
+  <si>
     <t>KEY_251</t>
   </si>
   <si>
+    <t>Anwendung schließen</t>
+  </si>
+  <si>
     <t>KEY_252</t>
   </si>
   <si>
+    <t>Möchten Sie dieses Programm wirklich schließen?</t>
+  </si>
+  <si>
     <t>KEY_253</t>
   </si>
   <si>
+    <t>Speichern abgebrochen</t>
+  </si>
+  <si>
     <t>KEY_254</t>
   </si>
   <si>
+    <t>Beim Speichern der Datenbank ist ein Fehler aufgetreten. Es wird empfohlen, das Programm neu zu starten.</t>
+  </si>
+  <si>
     <t>KEY_255</t>
   </si>
   <si>
+    <t>Parameter speichern ...</t>
+  </si>
+  <si>
     <t>KEY_256</t>
   </si>
   <si>
+    <t>Profil speichern</t>
+  </si>
+  <si>
     <t>KEY_257</t>
   </si>
   <si>
+    <t>Spannung</t>
+  </si>
+  <si>
     <t>KEY_258</t>
   </si>
   <si>
+    <t>Routen</t>
+  </si>
+  <si>
     <t>KEY_259</t>
   </si>
   <si>
+    <t>Protokollierung</t>
+  </si>
+  <si>
     <t>KEY_26</t>
   </si>
   <si>
+    <t>Falscher Anweisungscode</t>
+  </si>
+  <si>
     <t>KEY_260</t>
   </si>
   <si>
@@ -5196,12 +5730,21 @@
     <t>KEY_262</t>
   </si>
   <si>
+    <t>Servicemodus</t>
+  </si>
+  <si>
     <t>KEY_263</t>
   </si>
   <si>
+    <t>Montagemodus</t>
+  </si>
+  <si>
     <t>KEY_264</t>
   </si>
   <si>
+    <t>Batterie-Kalkulator</t>
+  </si>
+  <si>
     <t>KEY_265</t>
   </si>
   <si>
@@ -5220,57 +5763,102 @@
     <t>KEY_27</t>
   </si>
   <si>
+    <t>Der Profilname darf nicht leer sein.</t>
+  </si>
+  <si>
     <t>KEY_270</t>
   </si>
   <si>
     <t>KEY_271</t>
   </si>
   <si>
+    <t>Lesen</t>
+  </si>
+  <si>
     <t>KEY_272</t>
   </si>
   <si>
+    <t>Messanzeige</t>
+  </si>
+  <si>
     <t>KEY_273</t>
   </si>
   <si>
+    <t>Ablesedatum</t>
+  </si>
+  <si>
     <t>KEY_274</t>
   </si>
   <si>
+    <t>Daten ausgelesen</t>
+  </si>
+  <si>
     <t>KEY_275</t>
   </si>
   <si>
+    <t>Datenbankprüfung</t>
+  </si>
+  <si>
     <t>KEY_276</t>
   </si>
   <si>
+    <t>Programminitialisierung</t>
+  </si>
+  <si>
     <t>KEY_277</t>
   </si>
   <si>
     <t>KEY_278</t>
   </si>
   <si>
+    <t>serielle Schnittstelle</t>
+  </si>
+  <si>
     <t>KEY_279</t>
   </si>
   <si>
+    <t>Port auswählen</t>
+  </si>
+  <si>
     <t>KEY_28</t>
   </si>
   <si>
+    <t>Unbekannter Fehler</t>
+  </si>
+  <si>
     <t>KEY_280</t>
   </si>
   <si>
+    <t>Übertragungsprotokolle speichern</t>
+  </si>
+  <si>
     <t>KEY_281</t>
   </si>
   <si>
+    <t>Anmeldung</t>
+  </si>
+  <si>
     <t>KEY_282</t>
   </si>
   <si>
     <t>KEY_283</t>
   </si>
   <si>
+    <t>Anwender:</t>
+  </si>
+  <si>
     <t>KEY_284</t>
   </si>
   <si>
+    <t>Gespeichert</t>
+  </si>
+  <si>
     <t>KEY_285</t>
   </si>
   <si>
+    <t>Passwort ändern</t>
+  </si>
+  <si>
     <t>KEY_286</t>
   </si>
   <si>
@@ -5283,78 +5871,138 @@
     <t>KEY_289</t>
   </si>
   <si>
+    <t>Leistung cfg</t>
+  </si>
+  <si>
     <t>KEY_29</t>
   </si>
   <si>
+    <t>Es wurde ein falscher Zugangscode eingegeben</t>
+  </si>
+  <si>
     <t>KEY_290</t>
   </si>
   <si>
     <t>KEY_291</t>
   </si>
   <si>
+    <t>Leistung wmbus</t>
+  </si>
+  <si>
     <t>KEY_292</t>
   </si>
   <si>
     <t>KEY_293</t>
   </si>
   <si>
+    <t>Anzahl der Arbeitstage im Monat</t>
+  </si>
+  <si>
     <t>KEY_294</t>
   </si>
   <si>
+    <t>Anzahl der Arbeitsstunden pro Tag</t>
+  </si>
+  <si>
     <t>KEY_295</t>
   </si>
   <si>
+    <t>wM-Bus Konfiguration</t>
+  </si>
+  <si>
     <t>KEY_296</t>
   </si>
   <si>
+    <t>Berechnen</t>
+  </si>
+  <si>
     <t>KEY_297</t>
   </si>
   <si>
+    <t>Profilname</t>
+  </si>
+  <si>
     <t>KEY_298</t>
   </si>
   <si>
+    <t>Aufgabe</t>
+  </si>
+  <si>
     <t>KEY_299</t>
   </si>
   <si>
+    <t>Fehler nach der Profilspeicherung zurücksetzen.</t>
+  </si>
+  <si>
     <t>KEY_3</t>
   </si>
   <si>
     <t>KEY_30</t>
   </si>
   <si>
+    <t>Profil mit dem angegebenen Namen existiert bereits.</t>
+  </si>
+  <si>
     <t>KEY_300</t>
   </si>
   <si>
     <t>KEY_301</t>
   </si>
   <si>
+    <t>Ausführen</t>
+  </si>
+  <si>
     <t>KEY_302</t>
   </si>
   <si>
+    <t>Daten werden gelesen</t>
+  </si>
+  <si>
     <t>KEY_303</t>
   </si>
   <si>
+    <t>Rücksetzen der Fehler</t>
+  </si>
+  <si>
     <t>KEY_304</t>
   </si>
   <si>
+    <t>Volumen zurücksetzen</t>
+  </si>
+  <si>
     <t>KEY_305</t>
   </si>
   <si>
     <t>KEY_306</t>
   </si>
   <si>
+    <t>Abbrechen</t>
+  </si>
+  <si>
     <t>KEY_307</t>
   </si>
   <si>
+    <t>Timeout</t>
+  </si>
+  <si>
     <t>KEY_308</t>
   </si>
   <si>
+    <t>Profil</t>
+  </si>
+  <si>
     <t>KEY_309</t>
   </si>
   <si>
+    <t>Profil erstellen</t>
+  </si>
+  <si>
     <t>KEY_31</t>
   </si>
   <si>
+    <t>Zu viele Parameter</t>
+  </si>
+  <si>
     <t>KEY_310</t>
   </si>
   <si>
@@ -5364,255 +6012,477 @@
     <t>KEY_312</t>
   </si>
   <si>
+    <t>Profil einlesen</t>
+  </si>
+  <si>
     <t>KEY_313</t>
   </si>
   <si>
+    <t>Nein.</t>
+  </si>
+  <si>
     <t>KEY_314</t>
   </si>
   <si>
     <t>KEY_315</t>
   </si>
   <si>
+    <t>Anzahl der Parameter</t>
+  </si>
+  <si>
     <t>KEY_316</t>
   </si>
   <si>
+    <t>Profil mit dem angegebenen Namen existiert bereits, möchten Sie es überschreiben?</t>
+  </si>
+  <si>
     <t>KEY_317</t>
   </si>
   <si>
     <t>KEY_318</t>
   </si>
   <si>
+    <t>Reset-Modus</t>
+  </si>
+  <si>
     <t>KEY_319</t>
   </si>
   <si>
+    <t>Ablesen</t>
+  </si>
+  <si>
     <t>KEY_32</t>
   </si>
   <si>
+    <t>Ungültige Registrierungsnummer</t>
+  </si>
+  <si>
     <t>KEY_320</t>
   </si>
   <si>
     <t>KEY_321</t>
   </si>
   <si>
+    <t>Ausgabe Radionummer</t>
+  </si>
+  <si>
     <t>KEY_322</t>
   </si>
   <si>
+    <t>Neue Funknummer</t>
+  </si>
+  <si>
     <t>KEY_323</t>
   </si>
   <si>
     <t>KEY_324</t>
   </si>
   <si>
+    <t>Route</t>
+  </si>
+  <si>
     <t>KEY_325</t>
   </si>
   <si>
+    <t>Suche</t>
+  </si>
+  <si>
     <t>KEY_326</t>
   </si>
   <si>
+    <t>Start</t>
+  </si>
+  <si>
     <t>KEY_327</t>
   </si>
   <si>
+    <t>Stopp</t>
+  </si>
+  <si>
     <t>KEY_328</t>
   </si>
   <si>
     <t>KEY_329</t>
   </si>
   <si>
+    <t>Manuelles Lesen</t>
+  </si>
+  <si>
     <t>KEY_33</t>
   </si>
   <si>
+    <t>Beim Zurücksetzen der Flags ist ein Fehler aufgetreten.</t>
+  </si>
+  <si>
     <t>KEY_330</t>
   </si>
   <si>
+    <t>Messwerte löschen</t>
+  </si>
+  <si>
     <t>KEY_331</t>
   </si>
   <si>
+    <t>Radionummer bearbeiten</t>
+  </si>
+  <si>
     <t>KEY_332</t>
   </si>
   <si>
+    <t>Daten ablesen</t>
+  </si>
+  <si>
     <t>KEY_333</t>
   </si>
   <si>
+    <t>Leseroute ...</t>
+  </si>
+  <si>
     <t>KEY_334</t>
   </si>
   <si>
+    <t>Routenlesung abgeschlossen</t>
+  </si>
+  <si>
     <t>KEY_335</t>
   </si>
   <si>
+    <t>Fehlerrücksetzung abgebrochen</t>
+  </si>
+  <si>
     <t>KEY_336</t>
   </si>
   <si>
     <t>KEY_337</t>
   </si>
   <si>
+    <t>Route wählen</t>
+  </si>
+  <si>
     <t>KEY_338</t>
   </si>
   <si>
+    <t>Setzen Sie die Route fort</t>
+  </si>
+  <si>
     <t>KEY_339</t>
   </si>
   <si>
+    <t>Zum Anfang</t>
+  </si>
+  <si>
     <t>KEY_34</t>
   </si>
   <si>
+    <t>Übertragungsfehler</t>
+  </si>
+  <si>
     <t>KEY_340</t>
   </si>
   <si>
+    <t>Zeigen</t>
+  </si>
+  <si>
     <t>KEY_341</t>
   </si>
   <si>
+    <t>Sekundenbezogene Durchströmungsdauer</t>
+  </si>
+  <si>
     <t>KEY_342</t>
   </si>
   <si>
+    <t>Definition max. Durchströmung</t>
+  </si>
+  <si>
     <t>KEY_343</t>
   </si>
   <si>
+    <t>minutenbezogene Durchströmung</t>
+  </si>
+  <si>
     <t>KEY_344</t>
   </si>
   <si>
+    <t>minutenbezogene Durchströmungsdauer</t>
+  </si>
+  <si>
     <t>KEY_345</t>
   </si>
   <si>
+    <t>TTL</t>
+  </si>
+  <si>
     <t>KEY_346</t>
   </si>
   <si>
+    <t>Betriebszeit</t>
+  </si>
+  <si>
     <t>KEY_347</t>
   </si>
   <si>
+    <t>Volumen</t>
+  </si>
+  <si>
     <t>KEY_348</t>
   </si>
   <si>
+    <t>allgemein</t>
+  </si>
+  <si>
     <t>KEY_349</t>
   </si>
   <si>
+    <t>Durchströmung</t>
+  </si>
+  <si>
     <t>KEY_35</t>
   </si>
   <si>
+    <t>Falsche Datenmenge</t>
+  </si>
+  <si>
     <t>KEY_350</t>
   </si>
   <si>
+    <t>Statistiken</t>
+  </si>
+  <si>
     <t>KEY_351</t>
   </si>
   <si>
+    <t>Übertragung</t>
+  </si>
+  <si>
     <t>KEY_352</t>
   </si>
   <si>
+    <t>Meter</t>
+  </si>
+  <si>
     <t>KEY_353</t>
   </si>
   <si>
     <t>KEY_354</t>
   </si>
   <si>
+    <t>Beschreibung</t>
+  </si>
+  <si>
     <t>KEY_355</t>
   </si>
   <si>
+    <t>° C</t>
+  </si>
+  <si>
     <t>KEY_356</t>
   </si>
   <si>
+    <t>µA</t>
+  </si>
+  <si>
     <t>KEY_357</t>
   </si>
   <si>
+    <t>µs</t>
+  </si>
+  <si>
     <t>KEY_358</t>
   </si>
   <si>
+    <t>Detektorfehler 12</t>
+  </si>
+  <si>
     <t>KEY_359</t>
   </si>
   <si>
     <t>KEY_36</t>
   </si>
   <si>
+    <t>Ungültiger CRC</t>
+  </si>
+  <si>
     <t>KEY_360</t>
   </si>
   <si>
+    <t>Tage</t>
+  </si>
+  <si>
     <t>KEY_361</t>
   </si>
   <si>
+    <t>Tag</t>
+  </si>
+  <si>
     <t>KEY_362</t>
   </si>
   <si>
+    <t>Letzter Tag</t>
+  </si>
+  <si>
     <t>KEY_363</t>
   </si>
   <si>
+    <t>Keine Daten vorhanden.</t>
+  </si>
+  <si>
     <t>KEY_364</t>
   </si>
   <si>
+    <t>Falsche Softwareversion</t>
+  </si>
+  <si>
     <t>KEY_365</t>
   </si>
   <si>
     <t>KEY_37</t>
   </si>
   <si>
+    <t>Die Datenbank des Programms ist in der falschen Version. Installieren Sie die richtige Version von Inkasent PC und speichern Sie die Datenbank auf dem Mobilgerät.</t>
+  </si>
+  <si>
     <t>KEY_38</t>
   </si>
   <si>
+    <t>Falscher Gerätetyp. Stellen Sie sicher, dass Sie den richtigen Gerätetyp ausgewählt haben, den Sie speichern oder lesen möchten.</t>
+  </si>
+  <si>
     <t>KEY_39</t>
   </si>
   <si>
+    <t>Falsche Softwareversion. Stellen Sie sicher, dass Sie die richtige Softwareversion für das Gerät auswählen, das Sie speichern oder lesen möchten.</t>
+  </si>
+  <si>
     <t>KEY_4</t>
   </si>
   <si>
+    <t>Fehler beim Herunterladen der Daten</t>
+  </si>
+  <si>
     <t>KEY_40</t>
   </si>
   <si>
+    <t xml:space="preserve">Fehler: </t>
+  </si>
+  <si>
     <t>KEY_41</t>
   </si>
   <si>
+    <t>Fehler:</t>
+  </si>
+  <si>
     <t>KEY_42</t>
   </si>
   <si>
+    <t>Keine vorhandenen Informationen</t>
+  </si>
+  <si>
     <t>KEY_43</t>
   </si>
   <si>
+    <t>Keine Fehler</t>
+  </si>
+  <si>
     <t>KEY_44</t>
   </si>
   <si>
+    <t>Keine Widerspiegelung vorhanden.</t>
+  </si>
+  <si>
     <t>KEY_45</t>
   </si>
   <si>
+    <t>Keine Parameter ausgewählt.</t>
+  </si>
+  <si>
     <t>KEY_46</t>
   </si>
   <si>
+    <t>Gebäude: {0}</t>
+  </si>
+  <si>
     <t>KEY_47</t>
   </si>
   <si>
+    <t>Belichtungszeit des Magneten</t>
+  </si>
+  <si>
     <t>KEY_48</t>
   </si>
   <si>
+    <t>Fehler beim Entfernen des Geräts</t>
+  </si>
+  <si>
     <t>KEY_49</t>
   </si>
   <si>
+    <t>Modulzeit</t>
+  </si>
+  <si>
     <t>KEY_5</t>
   </si>
   <si>
     <t>KEY_50</t>
   </si>
   <si>
+    <t>Datum:</t>
+  </si>
+  <si>
     <t>KEY_51</t>
   </si>
   <si>
+    <t>Nieder:</t>
+  </si>
+  <si>
     <t>KEY_52</t>
   </si>
   <si>
+    <t>Hauptzähler wurde NICHT hinzugefügt. Funkmodul mit der Nummer {0} ist bereits vorhanden.</t>
+  </si>
+  <si>
     <t>KEY_53</t>
   </si>
   <si>
+    <t>Ungültige Funknummer</t>
+  </si>
+  <si>
     <t>KEY_54</t>
   </si>
   <si>
+    <t>Messgerät wurde NICHT hinzugefügt. Funkmodul mit der Nummer {0} ist bereits vorhanden.</t>
+  </si>
+  <si>
     <t>KEY_55</t>
   </si>
   <si>
+    <t>Passwort geändert</t>
+  </si>
+  <si>
     <t>KEY_56</t>
   </si>
   <si>
+    <t>Exposition gegenüber Magnetgeschichte</t>
+  </si>
+  <si>
     <t>KEY_57</t>
   </si>
   <si>
+    <t>Maximaler Verlauf von Durchflussfehlern</t>
+  </si>
+  <si>
     <t>KEY_58</t>
   </si>
   <si>
+    <t>Rückfluss-Fehlerhistorie</t>
+  </si>
+  <si>
     <t>KEY_59</t>
   </si>
   <si>
+    <t>Leckversagensgeschichte</t>
+  </si>
+  <si>
     <t>KEY_6</t>
   </si>
   <si>
@@ -5622,60 +6492,108 @@
     <t>KEY_61</t>
   </si>
   <si>
+    <t>Zugangscode für Funkmodul.</t>
+  </si>
+  <si>
     <t>KEY_62</t>
   </si>
   <si>
     <t>KEY_63</t>
   </si>
   <si>
+    <t>Information:</t>
+  </si>
+  <si>
     <t>KEY_64</t>
   </si>
   <si>
+    <t>Bluetooth wird initialisiert ...</t>
+  </si>
+  <si>
     <t>KEY_65</t>
   </si>
   <si>
+    <t>Inkasent Version {0}</t>
+  </si>
+  <si>
     <t>KEY_66</t>
   </si>
   <si>
+    <t>Sonstige</t>
+  </si>
+  <si>
     <t>KEY_67</t>
   </si>
   <si>
+    <t>dBm</t>
+  </si>
+  <si>
     <t>KEY_68</t>
   </si>
   <si>
+    <t>l</t>
+  </si>
+  <si>
     <t>KEY_69</t>
   </si>
   <si>
+    <t>l / h</t>
+  </si>
+  <si>
     <t>KEY_7</t>
   </si>
   <si>
     <t>KEY_70</t>
   </si>
   <si>
+    <t>m³</t>
+  </si>
+  <si>
     <t>KEY_71</t>
   </si>
   <si>
+    <t>m³ / h</t>
+  </si>
+  <si>
     <t>KEY_72</t>
   </si>
   <si>
+    <t>Mindest</t>
+  </si>
+  <si>
     <t>KEY_73</t>
   </si>
   <si>
+    <t>s</t>
+  </si>
+  <si>
     <t>KEY_74</t>
   </si>
   <si>
+    <t>V</t>
+  </si>
+  <si>
     <t>KEY_75</t>
   </si>
   <si>
     <t>KEY_76</t>
   </si>
   <si>
+    <t>Frame: {0}</t>
+  </si>
+  <si>
     <t>KEY_77</t>
   </si>
   <si>
+    <t>Treppen</t>
+  </si>
+  <si>
     <t>KEY_78</t>
   </si>
   <si>
+    <t>Konverterinfo</t>
+  </si>
+  <si>
     <t>KEY_79</t>
   </si>
   <si>
@@ -5685,90 +6603,168 @@
     <t>KEY_80</t>
   </si>
   <si>
+    <t>Master-Meter wurde hinzugefügt.</t>
+  </si>
+  <si>
     <t>KEY_81</t>
   </si>
   <si>
+    <t>Meter wurde hinzugefügt.</t>
+  </si>
+  <si>
     <t>KEY_82</t>
   </si>
   <si>
+    <t>Master-Meter</t>
+  </si>
+  <si>
     <t>KEY_83</t>
   </si>
   <si>
+    <t>Ort: {0}</t>
+  </si>
+  <si>
     <t>KEY_84</t>
   </si>
   <si>
+    <t>Wohnungen</t>
+  </si>
+  <si>
     <t>KEY_85</t>
   </si>
   <si>
+    <t>Ort:</t>
+  </si>
+  <si>
     <t>KEY_86</t>
   </si>
   <si>
     <t>KEY_87</t>
   </si>
   <si>
+    <t>Max</t>
+  </si>
+  <si>
     <t>KEY_88</t>
   </si>
   <si>
+    <t>Das Funkmodul mit der angegebenen Nummer ist bereits vorhanden.</t>
+  </si>
+  <si>
     <t>KEY_89</t>
   </si>
   <si>
+    <t>Spannungen</t>
+  </si>
+  <si>
     <t>KEY_9</t>
   </si>
   <si>
+    <t>Rücksetzen WDR</t>
+  </si>
+  <si>
     <t>KEY_90</t>
   </si>
   <si>
+    <t>Spannung: {0} V</t>
+  </si>
+  <si>
     <t>KEY_91</t>
   </si>
   <si>
+    <t>Profil wird gespeichert</t>
+  </si>
+  <si>
     <t>KEY_92</t>
   </si>
   <si>
+    <t>Der verwendete Zugangscode ist falsch. Möchten Sie einen neuen Zugangscode für dieses Gerät verwenden?</t>
+  </si>
+  <si>
     <t>KEY_93</t>
   </si>
   <si>
+    <t>niedrig</t>
+  </si>
+  <si>
     <t>KEY_94</t>
   </si>
   <si>
+    <t>normal</t>
+  </si>
+  <si>
     <t>KEY_95</t>
   </si>
   <si>
     <t>KEY_96</t>
   </si>
   <si>
+    <t>Alle Daten in der aktuellen Route werden gelöscht. Möchtest du weiter machen?</t>
+  </si>
+  <si>
     <t>KEY_97</t>
   </si>
   <si>
+    <t>neu</t>
+  </si>
+  <si>
     <t>KEY_98</t>
   </si>
   <si>
+    <t>Neu:</t>
+  </si>
+  <si>
     <t>KEY_99</t>
   </si>
   <si>
+    <t>Funknummer:</t>
+  </si>
+  <si>
     <t>AT_NoDateForOverlay</t>
   </si>
   <si>
+    <t>Fehlendes Modul Datum und Uhrzeit</t>
+  </si>
+  <si>
     <t>Properties\Resources</t>
   </si>
   <si>
     <t>AT_NoDeviceRadioNumber</t>
   </si>
   <si>
+    <t>Keine Gerätenummer</t>
+  </si>
+  <si>
     <t>AT_NoPulsingForOverlay</t>
   </si>
   <si>
+    <t>Keine Impulse für AT-WMBUS-04-Modul (0)</t>
+  </si>
+  <si>
     <t>AT_NoReadDate</t>
   </si>
   <si>
+    <t>Kein Lesedatum</t>
+  </si>
+  <si>
     <t>AT_NoReadDateAndOverlayDate</t>
   </si>
   <si>
+    <t>Kein Lesedatum und keine Modulzeit</t>
+  </si>
+  <si>
     <t>AT_NoReadDateForDevice</t>
   </si>
   <si>
+    <t>Kein Lesedatum für Gerät {0}</t>
+  </si>
+  <si>
     <t>AT_NoVolumeForDevice</t>
   </si>
   <si>
+    <t>Kein Volume für Gerät {0}</t>
+  </si>
+  <si>
     <t>AT_TableHeatDivisorReads</t>
   </si>
   <si>
@@ -5776,6 +6772,9 @@
   </si>
   <si>
     <t>AT_TableWatermeterReads</t>
+  </si>
+  <si>
+    <t>Wasserzählerstände</t>
   </si>
 </sst>
 </file>
@@ -18132,7 +19131,9 @@
       <c r="A803" t="s">
         <v>1521</v>
       </c>
-      <c r="B803"/>
+      <c r="B803" t="s">
+        <v>1522</v>
+      </c>
       <c r="C803"/>
       <c r="D803" t="s">
         <v>2</v>
@@ -18143,9 +19144,11 @@
     </row>
     <row r="804" spans="1:5">
       <c r="A804" t="s">
-        <v>1522</v>
-      </c>
-      <c r="B804"/>
+        <v>1523</v>
+      </c>
+      <c r="B804" t="s">
+        <v>1524</v>
+      </c>
       <c r="C804"/>
       <c r="D804" t="s">
         <v>2</v>
@@ -18156,9 +19159,11 @@
     </row>
     <row r="805" spans="1:5">
       <c r="A805" t="s">
-        <v>1523</v>
-      </c>
-      <c r="B805"/>
+        <v>1525</v>
+      </c>
+      <c r="B805" t="s">
+        <v>1526</v>
+      </c>
       <c r="C805"/>
       <c r="D805" t="s">
         <v>2</v>
@@ -18169,9 +19174,11 @@
     </row>
     <row r="806" spans="1:5">
       <c r="A806" t="s">
-        <v>1524</v>
-      </c>
-      <c r="B806"/>
+        <v>1527</v>
+      </c>
+      <c r="B806" t="s">
+        <v>1528</v>
+      </c>
       <c r="C806"/>
       <c r="D806" t="s">
         <v>2</v>
@@ -18182,9 +19189,11 @@
     </row>
     <row r="807" spans="1:5">
       <c r="A807" t="s">
-        <v>1525</v>
-      </c>
-      <c r="B807"/>
+        <v>1529</v>
+      </c>
+      <c r="B807" t="s">
+        <v>1530</v>
+      </c>
       <c r="C807"/>
       <c r="D807" t="s">
         <v>2</v>
@@ -18195,9 +19204,11 @@
     </row>
     <row r="808" spans="1:5">
       <c r="A808" t="s">
-        <v>1526</v>
-      </c>
-      <c r="B808"/>
+        <v>1531</v>
+      </c>
+      <c r="B808" t="s">
+        <v>1532</v>
+      </c>
       <c r="C808"/>
       <c r="D808" t="s">
         <v>2</v>
@@ -18208,9 +19219,11 @@
     </row>
     <row r="809" spans="1:5">
       <c r="A809" t="s">
-        <v>1527</v>
-      </c>
-      <c r="B809"/>
+        <v>1533</v>
+      </c>
+      <c r="B809" t="s">
+        <v>1534</v>
+      </c>
       <c r="C809"/>
       <c r="D809" t="s">
         <v>2</v>
@@ -18221,9 +19234,11 @@
     </row>
     <row r="810" spans="1:5">
       <c r="A810" t="s">
-        <v>1528</v>
-      </c>
-      <c r="B810"/>
+        <v>1535</v>
+      </c>
+      <c r="B810" t="s">
+        <v>1536</v>
+      </c>
       <c r="C810"/>
       <c r="D810" t="s">
         <v>2</v>
@@ -18234,9 +19249,11 @@
     </row>
     <row r="811" spans="1:5">
       <c r="A811" t="s">
-        <v>1529</v>
-      </c>
-      <c r="B811"/>
+        <v>1537</v>
+      </c>
+      <c r="B811" t="s">
+        <v>1538</v>
+      </c>
       <c r="C811"/>
       <c r="D811" t="s">
         <v>2</v>
@@ -18247,9 +19264,11 @@
     </row>
     <row r="812" spans="1:5">
       <c r="A812" t="s">
-        <v>1530</v>
-      </c>
-      <c r="B812"/>
+        <v>1539</v>
+      </c>
+      <c r="B812" t="s">
+        <v>1540</v>
+      </c>
       <c r="C812"/>
       <c r="D812" t="s">
         <v>2</v>
@@ -18260,9 +19279,11 @@
     </row>
     <row r="813" spans="1:5">
       <c r="A813" t="s">
-        <v>1531</v>
-      </c>
-      <c r="B813"/>
+        <v>1541</v>
+      </c>
+      <c r="B813" t="s">
+        <v>85</v>
+      </c>
       <c r="C813"/>
       <c r="D813" t="s">
         <v>2</v>
@@ -18273,9 +19294,11 @@
     </row>
     <row r="814" spans="1:5">
       <c r="A814" t="s">
-        <v>1532</v>
-      </c>
-      <c r="B814"/>
+        <v>1542</v>
+      </c>
+      <c r="B814" t="s">
+        <v>244</v>
+      </c>
       <c r="C814"/>
       <c r="D814" t="s">
         <v>2</v>
@@ -18286,4877 +19309,5627 @@
     </row>
     <row r="815" spans="1:5">
       <c r="A815" t="s">
-        <v>1533</v>
-      </c>
-      <c r="B815"/>
+        <v>1543</v>
+      </c>
+      <c r="B815" t="s">
+        <v>1544</v>
+      </c>
       <c r="C815"/>
       <c r="D815" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E815" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="816" spans="1:5">
       <c r="A816" t="s">
-        <v>1536</v>
-      </c>
-      <c r="B816"/>
+        <v>1547</v>
+      </c>
+      <c r="B816" t="s">
+        <v>1548</v>
+      </c>
       <c r="C816"/>
       <c r="D816" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E816" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="817" spans="1:5">
       <c r="A817" t="s">
-        <v>1537</v>
-      </c>
-      <c r="B817"/>
+        <v>1549</v>
+      </c>
+      <c r="B817" t="s">
+        <v>1550</v>
+      </c>
       <c r="C817"/>
       <c r="D817" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E817" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="818" spans="1:5">
       <c r="A818" t="s">
-        <v>1538</v>
-      </c>
-      <c r="B818"/>
+        <v>1551</v>
+      </c>
+      <c r="B818" t="s">
+        <v>1552</v>
+      </c>
       <c r="C818"/>
       <c r="D818" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E818" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="819" spans="1:5">
       <c r="A819" t="s">
-        <v>1539</v>
-      </c>
-      <c r="B819"/>
+        <v>1553</v>
+      </c>
+      <c r="B819" t="s">
+        <v>1554</v>
+      </c>
       <c r="C819"/>
       <c r="D819" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E819" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="820" spans="1:5">
       <c r="A820" t="s">
-        <v>1540</v>
-      </c>
-      <c r="B820"/>
+        <v>1555</v>
+      </c>
+      <c r="B820" t="s">
+        <v>1556</v>
+      </c>
       <c r="C820"/>
       <c r="D820" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E820" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="821" spans="1:5">
       <c r="A821" t="s">
-        <v>1541</v>
-      </c>
-      <c r="B821"/>
+        <v>1557</v>
+      </c>
+      <c r="B821" t="s">
+        <v>1558</v>
+      </c>
       <c r="C821"/>
       <c r="D821" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E821" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="822" spans="1:5">
       <c r="A822" t="s">
-        <v>1542</v>
-      </c>
-      <c r="B822"/>
+        <v>1559</v>
+      </c>
+      <c r="B822" t="s">
+        <v>1560</v>
+      </c>
       <c r="C822"/>
       <c r="D822" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E822" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="823" spans="1:5">
       <c r="A823" t="s">
-        <v>1543</v>
-      </c>
-      <c r="B823"/>
+        <v>1561</v>
+      </c>
+      <c r="B823" t="s">
+        <v>1562</v>
+      </c>
       <c r="C823"/>
       <c r="D823" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E823" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="824" spans="1:5">
       <c r="A824" t="s">
-        <v>1544</v>
-      </c>
-      <c r="B824"/>
+        <v>1563</v>
+      </c>
+      <c r="B824" t="s">
+        <v>1564</v>
+      </c>
       <c r="C824"/>
       <c r="D824" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E824" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="825" spans="1:5">
       <c r="A825" t="s">
-        <v>1545</v>
-      </c>
-      <c r="B825"/>
+        <v>1565</v>
+      </c>
+      <c r="B825" t="s">
+        <v>1566</v>
+      </c>
       <c r="C825"/>
       <c r="D825" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E825" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="826" spans="1:5">
       <c r="A826" t="s">
-        <v>1546</v>
-      </c>
-      <c r="B826"/>
+        <v>1567</v>
+      </c>
+      <c r="B826" t="s">
+        <v>1568</v>
+      </c>
       <c r="C826"/>
       <c r="D826" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E826" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="827" spans="1:5">
       <c r="A827" t="s">
-        <v>1547</v>
-      </c>
-      <c r="B827"/>
+        <v>1569</v>
+      </c>
+      <c r="B827" t="s">
+        <v>95</v>
+      </c>
       <c r="C827"/>
       <c r="D827" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E827" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="828" spans="1:5">
       <c r="A828" t="s">
-        <v>1548</v>
-      </c>
-      <c r="B828"/>
+        <v>1570</v>
+      </c>
+      <c r="B828" t="s">
+        <v>1571</v>
+      </c>
       <c r="C828"/>
       <c r="D828" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E828" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="829" spans="1:5">
       <c r="A829" t="s">
-        <v>1549</v>
-      </c>
-      <c r="B829"/>
+        <v>1572</v>
+      </c>
+      <c r="B829" t="s">
+        <v>1573</v>
+      </c>
       <c r="C829"/>
       <c r="D829" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E829" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="830" spans="1:5">
       <c r="A830" t="s">
-        <v>1550</v>
-      </c>
-      <c r="B830"/>
+        <v>1574</v>
+      </c>
+      <c r="B830" t="s">
+        <v>246</v>
+      </c>
       <c r="C830"/>
       <c r="D830" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E830" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="831" spans="1:5">
       <c r="A831" t="s">
-        <v>1551</v>
-      </c>
-      <c r="B831"/>
+        <v>1575</v>
+      </c>
+      <c r="B831" t="s">
+        <v>1576</v>
+      </c>
       <c r="C831"/>
       <c r="D831" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E831" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="832" spans="1:5">
       <c r="A832" t="s">
-        <v>1552</v>
-      </c>
-      <c r="B832"/>
+        <v>1577</v>
+      </c>
+      <c r="B832" t="s">
+        <v>1578</v>
+      </c>
       <c r="C832"/>
       <c r="D832" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E832" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="833" spans="1:5">
       <c r="A833" t="s">
-        <v>1553</v>
-      </c>
-      <c r="B833"/>
+        <v>1579</v>
+      </c>
+      <c r="B833" t="s">
+        <v>1580</v>
+      </c>
       <c r="C833"/>
       <c r="D833" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E833" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="834" spans="1:5">
       <c r="A834" t="s">
-        <v>1554</v>
-      </c>
-      <c r="B834"/>
+        <v>1581</v>
+      </c>
+      <c r="B834" t="s">
+        <v>1582</v>
+      </c>
       <c r="C834"/>
       <c r="D834" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E834" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="835" spans="1:5">
       <c r="A835" t="s">
-        <v>1555</v>
-      </c>
-      <c r="B835"/>
+        <v>1583</v>
+      </c>
+      <c r="B835" t="s">
+        <v>1584</v>
+      </c>
       <c r="C835"/>
       <c r="D835" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E835" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="836" spans="1:5">
       <c r="A836" t="s">
-        <v>1556</v>
-      </c>
-      <c r="B836"/>
+        <v>1585</v>
+      </c>
+      <c r="B836" t="s">
+        <v>1586</v>
+      </c>
       <c r="C836"/>
       <c r="D836" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E836" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="837" spans="1:5">
       <c r="A837" t="s">
-        <v>1557</v>
-      </c>
-      <c r="B837"/>
+        <v>1587</v>
+      </c>
+      <c r="B837" t="s">
+        <v>1588</v>
+      </c>
       <c r="C837"/>
       <c r="D837" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E837" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="838" spans="1:5">
       <c r="A838" t="s">
-        <v>1558</v>
-      </c>
-      <c r="B838"/>
+        <v>1589</v>
+      </c>
+      <c r="B838" t="s">
+        <v>1590</v>
+      </c>
       <c r="C838"/>
       <c r="D838" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E838" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="839" spans="1:5">
       <c r="A839" t="s">
-        <v>1559</v>
-      </c>
-      <c r="B839"/>
+        <v>1591</v>
+      </c>
+      <c r="B839" t="s">
+        <v>1592</v>
+      </c>
       <c r="C839"/>
       <c r="D839" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E839" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="840" spans="1:5">
       <c r="A840" t="s">
-        <v>1560</v>
-      </c>
-      <c r="B840"/>
+        <v>1593</v>
+      </c>
+      <c r="B840" t="s">
+        <v>1594</v>
+      </c>
       <c r="C840"/>
       <c r="D840" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E840" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="841" spans="1:5">
       <c r="A841" t="s">
-        <v>1561</v>
-      </c>
-      <c r="B841"/>
+        <v>1595</v>
+      </c>
+      <c r="B841" t="s">
+        <v>1596</v>
+      </c>
       <c r="C841"/>
       <c r="D841" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E841" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="842" spans="1:5">
       <c r="A842" t="s">
-        <v>1562</v>
-      </c>
-      <c r="B842"/>
+        <v>1597</v>
+      </c>
+      <c r="B842" t="s">
+        <v>1598</v>
+      </c>
       <c r="C842"/>
       <c r="D842" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E842" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="843" spans="1:5">
       <c r="A843" t="s">
-        <v>1563</v>
-      </c>
-      <c r="B843"/>
+        <v>1599</v>
+      </c>
+      <c r="B843" t="s">
+        <v>1600</v>
+      </c>
       <c r="C843"/>
       <c r="D843" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E843" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="844" spans="1:5">
       <c r="A844" t="s">
-        <v>1564</v>
-      </c>
-      <c r="B844"/>
+        <v>1601</v>
+      </c>
+      <c r="B844" t="s">
+        <v>1602</v>
+      </c>
       <c r="C844"/>
       <c r="D844" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E844" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="845" spans="1:5">
       <c r="A845" t="s">
-        <v>1565</v>
-      </c>
-      <c r="B845"/>
+        <v>1603</v>
+      </c>
+      <c r="B845" t="s">
+        <v>1604</v>
+      </c>
       <c r="C845"/>
       <c r="D845" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E845" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="846" spans="1:5">
       <c r="A846" t="s">
-        <v>1566</v>
-      </c>
-      <c r="B846"/>
+        <v>1605</v>
+      </c>
+      <c r="B846" t="s">
+        <v>1606</v>
+      </c>
       <c r="C846"/>
       <c r="D846" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E846" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="847" spans="1:5">
       <c r="A847" t="s">
-        <v>1567</v>
-      </c>
-      <c r="B847"/>
+        <v>1607</v>
+      </c>
+      <c r="B847" t="s">
+        <v>1608</v>
+      </c>
       <c r="C847"/>
       <c r="D847" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E847" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="848" spans="1:5">
       <c r="A848" t="s">
-        <v>1568</v>
-      </c>
-      <c r="B848"/>
+        <v>1609</v>
+      </c>
+      <c r="B848" t="s">
+        <v>1610</v>
+      </c>
       <c r="C848"/>
       <c r="D848" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E848" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="849" spans="1:5">
       <c r="A849" t="s">
-        <v>1569</v>
-      </c>
-      <c r="B849"/>
+        <v>1611</v>
+      </c>
+      <c r="B849" t="s">
+        <v>1612</v>
+      </c>
       <c r="C849"/>
       <c r="D849" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E849" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="850" spans="1:5">
       <c r="A850" t="s">
-        <v>1570</v>
-      </c>
-      <c r="B850"/>
+        <v>1613</v>
+      </c>
+      <c r="B850" t="s">
+        <v>1614</v>
+      </c>
       <c r="C850"/>
       <c r="D850" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E850" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="851" spans="1:5">
       <c r="A851" t="s">
-        <v>1571</v>
-      </c>
-      <c r="B851"/>
+        <v>1615</v>
+      </c>
+      <c r="B851" t="s">
+        <v>1616</v>
+      </c>
       <c r="C851"/>
       <c r="D851" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E851" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="852" spans="1:5">
       <c r="A852" t="s">
-        <v>1572</v>
-      </c>
-      <c r="B852"/>
+        <v>1617</v>
+      </c>
+      <c r="B852" t="s">
+        <v>1618</v>
+      </c>
       <c r="C852"/>
       <c r="D852" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E852" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="853" spans="1:5">
       <c r="A853" t="s">
-        <v>1573</v>
-      </c>
-      <c r="B853"/>
+        <v>1619</v>
+      </c>
+      <c r="B853" t="s">
+        <v>1620</v>
+      </c>
       <c r="C853"/>
       <c r="D853" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E853" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="854" spans="1:5">
       <c r="A854" t="s">
-        <v>1574</v>
-      </c>
-      <c r="B854"/>
+        <v>1621</v>
+      </c>
+      <c r="B854" t="s">
+        <v>1622</v>
+      </c>
       <c r="C854"/>
       <c r="D854" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E854" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="855" spans="1:5">
       <c r="A855" t="s">
-        <v>1575</v>
-      </c>
-      <c r="B855"/>
+        <v>1623</v>
+      </c>
+      <c r="B855" t="s">
+        <v>1624</v>
+      </c>
       <c r="C855"/>
       <c r="D855" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E855" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="856" spans="1:5">
       <c r="A856" t="s">
-        <v>1576</v>
-      </c>
-      <c r="B856"/>
+        <v>1625</v>
+      </c>
+      <c r="B856" t="s">
+        <v>1626</v>
+      </c>
       <c r="C856"/>
       <c r="D856" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E856" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="857" spans="1:5">
       <c r="A857" t="s">
-        <v>1577</v>
-      </c>
-      <c r="B857"/>
+        <v>1627</v>
+      </c>
+      <c r="B857" t="s">
+        <v>1628</v>
+      </c>
       <c r="C857"/>
       <c r="D857" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E857" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="858" spans="1:5">
       <c r="A858" t="s">
-        <v>1578</v>
-      </c>
-      <c r="B858"/>
+        <v>1629</v>
+      </c>
+      <c r="B858" t="s">
+        <v>349</v>
+      </c>
       <c r="C858"/>
       <c r="D858" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E858" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="859" spans="1:5">
       <c r="A859" t="s">
-        <v>1579</v>
-      </c>
-      <c r="B859"/>
+        <v>1630</v>
+      </c>
+      <c r="B859" t="s">
+        <v>1631</v>
+      </c>
       <c r="C859"/>
       <c r="D859" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E859" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="860" spans="1:5">
       <c r="A860" t="s">
-        <v>1580</v>
-      </c>
-      <c r="B860"/>
+        <v>1632</v>
+      </c>
+      <c r="B860" t="s">
+        <v>182</v>
+      </c>
       <c r="C860"/>
       <c r="D860" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E860" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="861" spans="1:5">
       <c r="A861" t="s">
-        <v>1581</v>
-      </c>
-      <c r="B861"/>
+        <v>1633</v>
+      </c>
+      <c r="B861" t="s">
+        <v>1634</v>
+      </c>
       <c r="C861"/>
       <c r="D861" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E861" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="862" spans="1:5">
       <c r="A862" t="s">
-        <v>1582</v>
-      </c>
-      <c r="B862"/>
+        <v>1635</v>
+      </c>
+      <c r="B862" t="s">
+        <v>1636</v>
+      </c>
       <c r="C862"/>
       <c r="D862" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E862" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="863" spans="1:5">
       <c r="A863" t="s">
-        <v>1583</v>
-      </c>
-      <c r="B863"/>
+        <v>1637</v>
+      </c>
+      <c r="B863" t="s">
+        <v>1638</v>
+      </c>
       <c r="C863"/>
       <c r="D863" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E863" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="864" spans="1:5">
       <c r="A864" t="s">
-        <v>1584</v>
-      </c>
-      <c r="B864"/>
+        <v>1639</v>
+      </c>
+      <c r="B864" t="s">
+        <v>1640</v>
+      </c>
       <c r="C864"/>
       <c r="D864" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E864" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="865" spans="1:5">
       <c r="A865" t="s">
-        <v>1585</v>
-      </c>
-      <c r="B865"/>
+        <v>1641</v>
+      </c>
+      <c r="B865" t="s">
+        <v>351</v>
+      </c>
       <c r="C865"/>
       <c r="D865" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E865" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="866" spans="1:5">
       <c r="A866" t="s">
-        <v>1586</v>
-      </c>
-      <c r="B866"/>
+        <v>1642</v>
+      </c>
+      <c r="B866" t="s">
+        <v>1643</v>
+      </c>
       <c r="C866"/>
       <c r="D866" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E866" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="867" spans="1:5">
       <c r="A867" t="s">
-        <v>1587</v>
-      </c>
-      <c r="B867"/>
+        <v>1644</v>
+      </c>
+      <c r="B867" t="s">
+        <v>1645</v>
+      </c>
       <c r="C867"/>
       <c r="D867" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E867" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="868" spans="1:5">
       <c r="A868" t="s">
-        <v>1588</v>
-      </c>
-      <c r="B868"/>
+        <v>1646</v>
+      </c>
+      <c r="B868" t="s">
+        <v>1647</v>
+      </c>
       <c r="C868"/>
       <c r="D868" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E868" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="869" spans="1:5">
       <c r="A869" t="s">
-        <v>1589</v>
-      </c>
-      <c r="B869"/>
+        <v>1648</v>
+      </c>
+      <c r="B869" t="s">
+        <v>1649</v>
+      </c>
       <c r="C869"/>
       <c r="D869" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E869" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="870" spans="1:5">
       <c r="A870" t="s">
-        <v>1590</v>
-      </c>
-      <c r="B870"/>
+        <v>1650</v>
+      </c>
+      <c r="B870" t="s">
+        <v>1651</v>
+      </c>
       <c r="C870"/>
       <c r="D870" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E870" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="871" spans="1:5">
       <c r="A871" t="s">
-        <v>1591</v>
-      </c>
-      <c r="B871"/>
+        <v>1652</v>
+      </c>
+      <c r="B871" t="s">
+        <v>1653</v>
+      </c>
       <c r="C871"/>
       <c r="D871" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E871" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="872" spans="1:5">
       <c r="A872" t="s">
-        <v>1592</v>
-      </c>
-      <c r="B872"/>
+        <v>1654</v>
+      </c>
+      <c r="B872" t="s">
+        <v>1655</v>
+      </c>
       <c r="C872"/>
       <c r="D872" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E872" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="873" spans="1:5">
       <c r="A873" t="s">
-        <v>1593</v>
-      </c>
-      <c r="B873"/>
+        <v>1656</v>
+      </c>
+      <c r="B873" t="s">
+        <v>1657</v>
+      </c>
       <c r="C873"/>
       <c r="D873" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E873" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="874" spans="1:5">
       <c r="A874" t="s">
-        <v>1594</v>
-      </c>
-      <c r="B874"/>
+        <v>1658</v>
+      </c>
+      <c r="B874" t="s">
+        <v>1659</v>
+      </c>
       <c r="C874"/>
       <c r="D874" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E874" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="875" spans="1:5">
       <c r="A875" t="s">
-        <v>1595</v>
-      </c>
-      <c r="B875"/>
+        <v>1660</v>
+      </c>
+      <c r="B875" t="s">
+        <v>1661</v>
+      </c>
       <c r="C875"/>
       <c r="D875" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E875" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="876" spans="1:5">
       <c r="A876" t="s">
-        <v>1596</v>
-      </c>
-      <c r="B876"/>
+        <v>1662</v>
+      </c>
+      <c r="B876" t="s">
+        <v>1663</v>
+      </c>
       <c r="C876"/>
       <c r="D876" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E876" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="877" spans="1:5">
       <c r="A877" t="s">
-        <v>1597</v>
-      </c>
-      <c r="B877"/>
+        <v>1664</v>
+      </c>
+      <c r="B877" t="s">
+        <v>1665</v>
+      </c>
       <c r="C877"/>
       <c r="D877" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E877" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="878" spans="1:5">
       <c r="A878" t="s">
-        <v>1598</v>
-      </c>
-      <c r="B878"/>
+        <v>1666</v>
+      </c>
+      <c r="B878" t="s">
+        <v>1667</v>
+      </c>
       <c r="C878"/>
       <c r="D878" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E878" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="879" spans="1:5">
       <c r="A879" t="s">
-        <v>1599</v>
-      </c>
-      <c r="B879"/>
+        <v>1668</v>
+      </c>
+      <c r="B879" t="s">
+        <v>1669</v>
+      </c>
       <c r="C879"/>
       <c r="D879" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E879" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="880" spans="1:5">
       <c r="A880" t="s">
-        <v>1600</v>
-      </c>
-      <c r="B880"/>
+        <v>1670</v>
+      </c>
+      <c r="B880" t="s">
+        <v>1671</v>
+      </c>
       <c r="C880"/>
       <c r="D880" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E880" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="881" spans="1:5">
       <c r="A881" t="s">
-        <v>1601</v>
-      </c>
-      <c r="B881"/>
+        <v>1672</v>
+      </c>
+      <c r="B881" t="s">
+        <v>1673</v>
+      </c>
       <c r="C881"/>
       <c r="D881" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E881" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="882" spans="1:5">
       <c r="A882" t="s">
-        <v>1602</v>
-      </c>
-      <c r="B882"/>
+        <v>1674</v>
+      </c>
+      <c r="B882" t="s">
+        <v>1675</v>
+      </c>
       <c r="C882"/>
       <c r="D882" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E882" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="883" spans="1:5">
       <c r="A883" t="s">
-        <v>1603</v>
-      </c>
-      <c r="B883"/>
+        <v>1676</v>
+      </c>
+      <c r="B883" t="s">
+        <v>1677</v>
+      </c>
       <c r="C883"/>
       <c r="D883" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E883" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="884" spans="1:5">
       <c r="A884" t="s">
-        <v>1604</v>
-      </c>
-      <c r="B884"/>
+        <v>1678</v>
+      </c>
+      <c r="B884" t="s">
+        <v>1679</v>
+      </c>
       <c r="C884"/>
       <c r="D884" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E884" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="885" spans="1:5">
       <c r="A885" t="s">
-        <v>1605</v>
-      </c>
-      <c r="B885"/>
+        <v>1680</v>
+      </c>
+      <c r="B885" t="s">
+        <v>1681</v>
+      </c>
       <c r="C885"/>
       <c r="D885" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E885" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="886" spans="1:5">
       <c r="A886" t="s">
-        <v>1606</v>
-      </c>
-      <c r="B886"/>
+        <v>1682</v>
+      </c>
+      <c r="B886" t="s">
+        <v>1683</v>
+      </c>
       <c r="C886"/>
       <c r="D886" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E886" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="887" spans="1:5">
       <c r="A887" t="s">
-        <v>1607</v>
-      </c>
-      <c r="B887"/>
+        <v>1684</v>
+      </c>
+      <c r="B887" t="s">
+        <v>1685</v>
+      </c>
       <c r="C887"/>
       <c r="D887" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E887" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="888" spans="1:5">
       <c r="A888" t="s">
-        <v>1608</v>
-      </c>
-      <c r="B888"/>
+        <v>1686</v>
+      </c>
+      <c r="B888" t="s">
+        <v>1687</v>
+      </c>
       <c r="C888"/>
       <c r="D888" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E888" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="889" spans="1:5">
       <c r="A889" t="s">
-        <v>1609</v>
-      </c>
-      <c r="B889"/>
+        <v>1688</v>
+      </c>
+      <c r="B889" t="s">
+        <v>1689</v>
+      </c>
       <c r="C889"/>
       <c r="D889" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E889" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="890" spans="1:5">
       <c r="A890" t="s">
-        <v>1610</v>
-      </c>
-      <c r="B890"/>
+        <v>1690</v>
+      </c>
+      <c r="B890" t="s">
+        <v>1691</v>
+      </c>
       <c r="C890"/>
       <c r="D890" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E890" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="891" spans="1:5">
       <c r="A891" t="s">
-        <v>1611</v>
-      </c>
-      <c r="B891"/>
+        <v>1692</v>
+      </c>
+      <c r="B891" t="s">
+        <v>1693</v>
+      </c>
       <c r="C891"/>
       <c r="D891" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E891" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="892" spans="1:5">
       <c r="A892" t="s">
-        <v>1612</v>
-      </c>
-      <c r="B892"/>
+        <v>1694</v>
+      </c>
+      <c r="B892" t="s">
+        <v>1695</v>
+      </c>
       <c r="C892"/>
       <c r="D892" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E892" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="893" spans="1:5">
       <c r="A893" t="s">
-        <v>1613</v>
-      </c>
-      <c r="B893"/>
+        <v>1696</v>
+      </c>
+      <c r="B893" t="s">
+        <v>1697</v>
+      </c>
       <c r="C893"/>
       <c r="D893" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E893" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="894" spans="1:5">
       <c r="A894" t="s">
-        <v>1614</v>
-      </c>
-      <c r="B894"/>
+        <v>1698</v>
+      </c>
+      <c r="B894" t="s">
+        <v>1699</v>
+      </c>
       <c r="C894"/>
       <c r="D894" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E894" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="895" spans="1:5">
       <c r="A895" t="s">
-        <v>1615</v>
-      </c>
-      <c r="B895"/>
+        <v>1700</v>
+      </c>
+      <c r="B895" t="s">
+        <v>1701</v>
+      </c>
       <c r="C895"/>
       <c r="D895" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E895" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="896" spans="1:5">
       <c r="A896" t="s">
-        <v>1616</v>
-      </c>
-      <c r="B896"/>
+        <v>1702</v>
+      </c>
+      <c r="B896" t="s">
+        <v>1703</v>
+      </c>
       <c r="C896"/>
       <c r="D896" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E896" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="897" spans="1:5">
       <c r="A897" t="s">
-        <v>1617</v>
-      </c>
-      <c r="B897"/>
+        <v>1704</v>
+      </c>
+      <c r="B897" t="s">
+        <v>1705</v>
+      </c>
       <c r="C897"/>
       <c r="D897" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E897" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="898" spans="1:5">
       <c r="A898" t="s">
-        <v>1618</v>
-      </c>
-      <c r="B898"/>
+        <v>1706</v>
+      </c>
+      <c r="B898" t="s">
+        <v>1707</v>
+      </c>
       <c r="C898"/>
       <c r="D898" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E898" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="899" spans="1:5">
       <c r="A899" t="s">
-        <v>1619</v>
-      </c>
-      <c r="B899"/>
+        <v>1708</v>
+      </c>
+      <c r="B899" t="s">
+        <v>1709</v>
+      </c>
       <c r="C899"/>
       <c r="D899" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E899" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="900" spans="1:5">
       <c r="A900" t="s">
-        <v>1620</v>
-      </c>
-      <c r="B900"/>
+        <v>1710</v>
+      </c>
+      <c r="B900" t="s">
+        <v>1711</v>
+      </c>
       <c r="C900"/>
       <c r="D900" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E900" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="901" spans="1:5">
       <c r="A901" t="s">
-        <v>1621</v>
-      </c>
-      <c r="B901"/>
+        <v>1712</v>
+      </c>
+      <c r="B901" t="s">
+        <v>1713</v>
+      </c>
       <c r="C901"/>
       <c r="D901" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E901" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="902" spans="1:5">
       <c r="A902" t="s">
-        <v>1622</v>
-      </c>
-      <c r="B902"/>
+        <v>1714</v>
+      </c>
+      <c r="B902" t="s">
+        <v>1715</v>
+      </c>
       <c r="C902"/>
       <c r="D902" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E902" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="903" spans="1:5">
       <c r="A903" t="s">
-        <v>1623</v>
-      </c>
-      <c r="B903"/>
+        <v>1716</v>
+      </c>
+      <c r="B903" t="s">
+        <v>1717</v>
+      </c>
       <c r="C903"/>
       <c r="D903" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E903" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="904" spans="1:5">
       <c r="A904" t="s">
-        <v>1624</v>
-      </c>
-      <c r="B904"/>
+        <v>1718</v>
+      </c>
+      <c r="B904" t="s">
+        <v>1719</v>
+      </c>
       <c r="C904"/>
       <c r="D904" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E904" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="905" spans="1:5">
       <c r="A905" t="s">
-        <v>1625</v>
-      </c>
-      <c r="B905"/>
+        <v>1720</v>
+      </c>
+      <c r="B905" t="s">
+        <v>1721</v>
+      </c>
       <c r="C905"/>
       <c r="D905" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E905" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="906" spans="1:5">
       <c r="A906" t="s">
-        <v>1626</v>
-      </c>
-      <c r="B906"/>
+        <v>1722</v>
+      </c>
+      <c r="B906" t="s">
+        <v>1723</v>
+      </c>
       <c r="C906"/>
       <c r="D906" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E906" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="907" spans="1:5">
       <c r="A907" t="s">
-        <v>1627</v>
-      </c>
-      <c r="B907"/>
+        <v>1724</v>
+      </c>
+      <c r="B907" t="s">
+        <v>1725</v>
+      </c>
       <c r="C907"/>
       <c r="D907" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E907" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="908" spans="1:5">
       <c r="A908" t="s">
-        <v>1628</v>
-      </c>
-      <c r="B908"/>
+        <v>1726</v>
+      </c>
+      <c r="B908" t="s">
+        <v>1727</v>
+      </c>
       <c r="C908"/>
       <c r="D908" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E908" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="909" spans="1:5">
       <c r="A909" t="s">
-        <v>1629</v>
-      </c>
-      <c r="B909"/>
+        <v>1728</v>
+      </c>
+      <c r="B909" t="s">
+        <v>1729</v>
+      </c>
       <c r="C909"/>
       <c r="D909" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E909" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="910" spans="1:5">
       <c r="A910" t="s">
-        <v>1630</v>
-      </c>
-      <c r="B910"/>
+        <v>1730</v>
+      </c>
+      <c r="B910" t="s">
+        <v>1731</v>
+      </c>
       <c r="C910"/>
       <c r="D910" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E910" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="911" spans="1:5">
       <c r="A911" t="s">
-        <v>1631</v>
-      </c>
-      <c r="B911"/>
+        <v>1732</v>
+      </c>
+      <c r="B911" t="s">
+        <v>1733</v>
+      </c>
       <c r="C911"/>
       <c r="D911" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E911" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="912" spans="1:5">
       <c r="A912" t="s">
-        <v>1632</v>
-      </c>
-      <c r="B912"/>
+        <v>1734</v>
+      </c>
+      <c r="B912" t="s">
+        <v>1735</v>
+      </c>
       <c r="C912"/>
       <c r="D912" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E912" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="913" spans="1:5">
       <c r="A913" t="s">
-        <v>1633</v>
-      </c>
-      <c r="B913"/>
+        <v>1736</v>
+      </c>
+      <c r="B913" t="s">
+        <v>1737</v>
+      </c>
       <c r="C913"/>
       <c r="D913" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E913" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="914" spans="1:5">
       <c r="A914" t="s">
-        <v>1634</v>
-      </c>
-      <c r="B914"/>
+        <v>1738</v>
+      </c>
+      <c r="B914" t="s">
+        <v>1739</v>
+      </c>
       <c r="C914"/>
       <c r="D914" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E914" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="915" spans="1:5">
       <c r="A915" t="s">
-        <v>1635</v>
-      </c>
-      <c r="B915"/>
+        <v>1740</v>
+      </c>
+      <c r="B915" t="s">
+        <v>139</v>
+      </c>
       <c r="C915"/>
       <c r="D915" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E915" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="916" spans="1:5">
       <c r="A916" t="s">
-        <v>1636</v>
-      </c>
-      <c r="B916"/>
+        <v>1741</v>
+      </c>
+      <c r="B916" t="s">
+        <v>1742</v>
+      </c>
       <c r="C916"/>
       <c r="D916" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E916" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="917" spans="1:5">
       <c r="A917" t="s">
-        <v>1637</v>
-      </c>
-      <c r="B917"/>
+        <v>1743</v>
+      </c>
+      <c r="B917" t="s">
+        <v>1744</v>
+      </c>
       <c r="C917"/>
       <c r="D917" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E917" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="918" spans="1:5">
       <c r="A918" t="s">
-        <v>1638</v>
-      </c>
-      <c r="B918"/>
+        <v>1745</v>
+      </c>
+      <c r="B918" t="s">
+        <v>1746</v>
+      </c>
       <c r="C918"/>
       <c r="D918" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E918" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="919" spans="1:5">
       <c r="A919" t="s">
-        <v>1639</v>
-      </c>
-      <c r="B919"/>
+        <v>1747</v>
+      </c>
+      <c r="B919" t="s">
+        <v>1748</v>
+      </c>
       <c r="C919"/>
       <c r="D919" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E919" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="920" spans="1:5">
       <c r="A920" t="s">
-        <v>1640</v>
-      </c>
-      <c r="B920"/>
+        <v>1749</v>
+      </c>
+      <c r="B920" t="s">
+        <v>1750</v>
+      </c>
       <c r="C920"/>
       <c r="D920" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E920" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="921" spans="1:5">
       <c r="A921" t="s">
-        <v>1641</v>
-      </c>
-      <c r="B921"/>
+        <v>1751</v>
+      </c>
+      <c r="B921" t="s">
+        <v>1752</v>
+      </c>
       <c r="C921"/>
       <c r="D921" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E921" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="922" spans="1:5">
       <c r="A922" t="s">
-        <v>1642</v>
-      </c>
-      <c r="B922"/>
+        <v>1753</v>
+      </c>
+      <c r="B922" t="s">
+        <v>1754</v>
+      </c>
       <c r="C922"/>
       <c r="D922" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E922" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="923" spans="1:5">
       <c r="A923" t="s">
-        <v>1643</v>
-      </c>
-      <c r="B923"/>
+        <v>1755</v>
+      </c>
+      <c r="B923" t="s">
+        <v>1756</v>
+      </c>
       <c r="C923"/>
       <c r="D923" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E923" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="924" spans="1:5">
       <c r="A924" t="s">
-        <v>1644</v>
-      </c>
-      <c r="B924"/>
+        <v>1757</v>
+      </c>
+      <c r="B924" t="s">
+        <v>1758</v>
+      </c>
       <c r="C924"/>
       <c r="D924" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E924" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="925" spans="1:5">
       <c r="A925" t="s">
-        <v>1645</v>
-      </c>
-      <c r="B925"/>
+        <v>1759</v>
+      </c>
+      <c r="B925" t="s">
+        <v>1760</v>
+      </c>
       <c r="C925"/>
       <c r="D925" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E925" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="926" spans="1:5">
       <c r="A926" t="s">
-        <v>1646</v>
-      </c>
-      <c r="B926"/>
+        <v>1761</v>
+      </c>
+      <c r="B926" t="s">
+        <v>1762</v>
+      </c>
       <c r="C926"/>
       <c r="D926" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E926" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="927" spans="1:5">
       <c r="A927" t="s">
-        <v>1647</v>
-      </c>
-      <c r="B927"/>
+        <v>1763</v>
+      </c>
+      <c r="B927" t="s">
+        <v>1764</v>
+      </c>
       <c r="C927"/>
       <c r="D927" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E927" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="928" spans="1:5">
       <c r="A928" t="s">
-        <v>1648</v>
-      </c>
-      <c r="B928"/>
+        <v>1765</v>
+      </c>
+      <c r="B928" t="s">
+        <v>1766</v>
+      </c>
       <c r="C928"/>
       <c r="D928" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E928" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="929" spans="1:5">
       <c r="A929" t="s">
-        <v>1649</v>
-      </c>
-      <c r="B929"/>
+        <v>1767</v>
+      </c>
+      <c r="B929" t="s">
+        <v>1768</v>
+      </c>
       <c r="C929"/>
       <c r="D929" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E929" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="930" spans="1:5">
       <c r="A930" t="s">
-        <v>1650</v>
-      </c>
-      <c r="B930"/>
+        <v>1769</v>
+      </c>
+      <c r="B930" t="s">
+        <v>1770</v>
+      </c>
       <c r="C930"/>
       <c r="D930" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E930" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="931" spans="1:5">
       <c r="A931" t="s">
-        <v>1651</v>
-      </c>
-      <c r="B931"/>
+        <v>1771</v>
+      </c>
+      <c r="B931" t="s">
+        <v>1772</v>
+      </c>
       <c r="C931"/>
       <c r="D931" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E931" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="932" spans="1:5">
       <c r="A932" t="s">
-        <v>1652</v>
-      </c>
-      <c r="B932"/>
+        <v>1773</v>
+      </c>
+      <c r="B932" t="s">
+        <v>1774</v>
+      </c>
       <c r="C932"/>
       <c r="D932" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E932" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="933" spans="1:5">
       <c r="A933" t="s">
-        <v>1653</v>
-      </c>
-      <c r="B933"/>
+        <v>1775</v>
+      </c>
+      <c r="B933" t="s">
+        <v>1776</v>
+      </c>
       <c r="C933"/>
       <c r="D933" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E933" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="934" spans="1:5">
       <c r="A934" t="s">
-        <v>1654</v>
-      </c>
-      <c r="B934"/>
+        <v>1777</v>
+      </c>
+      <c r="B934" t="s">
+        <v>1778</v>
+      </c>
       <c r="C934"/>
       <c r="D934" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E934" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="935" spans="1:5">
       <c r="A935" t="s">
-        <v>1655</v>
-      </c>
-      <c r="B935"/>
+        <v>1779</v>
+      </c>
+      <c r="B935" t="s">
+        <v>1780</v>
+      </c>
       <c r="C935"/>
       <c r="D935" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E935" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="936" spans="1:5">
       <c r="A936" t="s">
-        <v>1656</v>
-      </c>
-      <c r="B936"/>
+        <v>1781</v>
+      </c>
+      <c r="B936" t="s">
+        <v>917</v>
+      </c>
       <c r="C936"/>
       <c r="D936" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E936" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="937" spans="1:5">
       <c r="A937" t="s">
-        <v>1657</v>
-      </c>
-      <c r="B937"/>
+        <v>1782</v>
+      </c>
+      <c r="B937" t="s">
+        <v>1783</v>
+      </c>
       <c r="C937"/>
       <c r="D937" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E937" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="938" spans="1:5">
       <c r="A938" t="s">
-        <v>1658</v>
-      </c>
-      <c r="B938"/>
+        <v>1784</v>
+      </c>
+      <c r="B938" t="s">
+        <v>1785</v>
+      </c>
       <c r="C938"/>
       <c r="D938" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E938" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="939" spans="1:5">
       <c r="A939" t="s">
-        <v>1659</v>
-      </c>
-      <c r="B939"/>
+        <v>1786</v>
+      </c>
+      <c r="B939" t="s">
+        <v>1226</v>
+      </c>
       <c r="C939"/>
       <c r="D939" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E939" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="940" spans="1:5">
       <c r="A940" t="s">
-        <v>1660</v>
-      </c>
-      <c r="B940"/>
+        <v>1787</v>
+      </c>
+      <c r="B940" t="s">
+        <v>1788</v>
+      </c>
       <c r="C940"/>
       <c r="D940" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E940" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="941" spans="1:5">
       <c r="A941" t="s">
-        <v>1661</v>
-      </c>
-      <c r="B941"/>
+        <v>1789</v>
+      </c>
+      <c r="B941" t="s">
+        <v>1790</v>
+      </c>
       <c r="C941"/>
       <c r="D941" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E941" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="942" spans="1:5">
       <c r="A942" t="s">
-        <v>1662</v>
-      </c>
-      <c r="B942"/>
+        <v>1791</v>
+      </c>
+      <c r="B942" t="s">
+        <v>1792</v>
+      </c>
       <c r="C942"/>
       <c r="D942" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E942" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="943" spans="1:5">
       <c r="A943" t="s">
-        <v>1663</v>
-      </c>
-      <c r="B943"/>
+        <v>1793</v>
+      </c>
+      <c r="B943" t="s">
+        <v>1794</v>
+      </c>
       <c r="C943"/>
       <c r="D943" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E943" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="944" spans="1:5">
       <c r="A944" t="s">
-        <v>1664</v>
-      </c>
-      <c r="B944"/>
+        <v>1795</v>
+      </c>
+      <c r="B944" t="s">
+        <v>1796</v>
+      </c>
       <c r="C944"/>
       <c r="D944" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E944" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="945" spans="1:5">
       <c r="A945" t="s">
-        <v>1665</v>
-      </c>
-      <c r="B945"/>
+        <v>1797</v>
+      </c>
+      <c r="B945" t="s">
+        <v>1798</v>
+      </c>
       <c r="C945"/>
       <c r="D945" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E945" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="946" spans="1:5">
       <c r="A946" t="s">
-        <v>1666</v>
-      </c>
-      <c r="B946"/>
+        <v>1799</v>
+      </c>
+      <c r="B946" t="s">
+        <v>1800</v>
+      </c>
       <c r="C946"/>
       <c r="D946" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E946" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="947" spans="1:5">
       <c r="A947" t="s">
-        <v>1667</v>
-      </c>
-      <c r="B947"/>
+        <v>1801</v>
+      </c>
+      <c r="B947" t="s">
+        <v>1802</v>
+      </c>
       <c r="C947"/>
       <c r="D947" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E947" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="948" spans="1:5">
       <c r="A948" t="s">
-        <v>1668</v>
-      </c>
-      <c r="B948"/>
+        <v>1803</v>
+      </c>
+      <c r="B948" t="s">
+        <v>1804</v>
+      </c>
       <c r="C948"/>
       <c r="D948" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E948" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="949" spans="1:5">
       <c r="A949" t="s">
-        <v>1669</v>
-      </c>
-      <c r="B949"/>
+        <v>1805</v>
+      </c>
+      <c r="B949" t="s">
+        <v>1806</v>
+      </c>
       <c r="C949"/>
       <c r="D949" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E949" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="950" spans="1:5">
       <c r="A950" t="s">
-        <v>1670</v>
-      </c>
-      <c r="B950"/>
+        <v>1807</v>
+      </c>
+      <c r="B950" t="s">
+        <v>1808</v>
+      </c>
       <c r="C950"/>
       <c r="D950" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E950" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="951" spans="1:5">
       <c r="A951" t="s">
-        <v>1671</v>
-      </c>
-      <c r="B951"/>
+        <v>1809</v>
+      </c>
+      <c r="B951" t="s">
+        <v>1810</v>
+      </c>
       <c r="C951"/>
       <c r="D951" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E951" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="952" spans="1:5">
       <c r="A952" t="s">
-        <v>1672</v>
-      </c>
-      <c r="B952"/>
+        <v>1811</v>
+      </c>
+      <c r="B952" t="s">
+        <v>1812</v>
+      </c>
       <c r="C952"/>
       <c r="D952" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E952" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="953" spans="1:5">
       <c r="A953" t="s">
-        <v>1673</v>
-      </c>
-      <c r="B953"/>
+        <v>1813</v>
+      </c>
+      <c r="B953" t="s">
+        <v>1814</v>
+      </c>
       <c r="C953"/>
       <c r="D953" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E953" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="954" spans="1:5">
       <c r="A954" t="s">
-        <v>1674</v>
-      </c>
-      <c r="B954"/>
+        <v>1815</v>
+      </c>
+      <c r="B954" t="s">
+        <v>1814</v>
+      </c>
       <c r="C954"/>
       <c r="D954" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E954" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="955" spans="1:5">
       <c r="A955" t="s">
-        <v>1675</v>
-      </c>
-      <c r="B955"/>
+        <v>1816</v>
+      </c>
+      <c r="B955" t="s">
+        <v>1817</v>
+      </c>
       <c r="C955"/>
       <c r="D955" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E955" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="956" spans="1:5">
       <c r="A956" t="s">
-        <v>1676</v>
-      </c>
-      <c r="B956"/>
+        <v>1818</v>
+      </c>
+      <c r="B956" t="s">
+        <v>1693</v>
+      </c>
       <c r="C956"/>
       <c r="D956" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E956" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="957" spans="1:5">
       <c r="A957" t="s">
-        <v>1677</v>
-      </c>
-      <c r="B957"/>
+        <v>1819</v>
+      </c>
+      <c r="B957" t="s">
+        <v>1820</v>
+      </c>
       <c r="C957"/>
       <c r="D957" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E957" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="958" spans="1:5">
       <c r="A958" t="s">
-        <v>1678</v>
-      </c>
-      <c r="B958"/>
+        <v>1821</v>
+      </c>
+      <c r="B958" t="s">
+        <v>1822</v>
+      </c>
       <c r="C958"/>
       <c r="D958" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E958" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="959" spans="1:5">
       <c r="A959" t="s">
-        <v>1679</v>
-      </c>
-      <c r="B959"/>
+        <v>1823</v>
+      </c>
+      <c r="B959" t="s">
+        <v>1824</v>
+      </c>
       <c r="C959"/>
       <c r="D959" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E959" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="960" spans="1:5">
       <c r="A960" t="s">
-        <v>1680</v>
-      </c>
-      <c r="B960"/>
+        <v>1825</v>
+      </c>
+      <c r="B960" t="s">
+        <v>1826</v>
+      </c>
       <c r="C960"/>
       <c r="D960" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E960" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="961" spans="1:5">
       <c r="A961" t="s">
-        <v>1681</v>
-      </c>
-      <c r="B961"/>
+        <v>1827</v>
+      </c>
+      <c r="B961" t="s">
+        <v>1828</v>
+      </c>
       <c r="C961"/>
       <c r="D961" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E961" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="962" spans="1:5">
       <c r="A962" t="s">
-        <v>1682</v>
-      </c>
-      <c r="B962"/>
+        <v>1829</v>
+      </c>
+      <c r="B962" t="s">
+        <v>1830</v>
+      </c>
       <c r="C962"/>
       <c r="D962" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E962" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="963" spans="1:5">
       <c r="A963" t="s">
-        <v>1683</v>
-      </c>
-      <c r="B963"/>
+        <v>1831</v>
+      </c>
+      <c r="B963" t="s">
+        <v>1832</v>
+      </c>
       <c r="C963"/>
       <c r="D963" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E963" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="964" spans="1:5">
       <c r="A964" t="s">
-        <v>1684</v>
-      </c>
-      <c r="B964"/>
+        <v>1833</v>
+      </c>
+      <c r="B964" t="s">
+        <v>1834</v>
+      </c>
       <c r="C964"/>
       <c r="D964" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E964" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="965" spans="1:5">
       <c r="A965" t="s">
-        <v>1685</v>
-      </c>
-      <c r="B965"/>
+        <v>1835</v>
+      </c>
+      <c r="B965" t="s">
+        <v>1836</v>
+      </c>
       <c r="C965"/>
       <c r="D965" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E965" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="966" spans="1:5">
       <c r="A966" t="s">
-        <v>1686</v>
-      </c>
-      <c r="B966"/>
+        <v>1837</v>
+      </c>
+      <c r="B966" t="s">
+        <v>1838</v>
+      </c>
       <c r="C966"/>
       <c r="D966" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E966" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="967" spans="1:5">
       <c r="A967" t="s">
-        <v>1687</v>
-      </c>
-      <c r="B967"/>
+        <v>1839</v>
+      </c>
+      <c r="B967" t="s">
+        <v>1840</v>
+      </c>
       <c r="C967"/>
       <c r="D967" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E967" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="968" spans="1:5">
       <c r="A968" t="s">
-        <v>1688</v>
-      </c>
-      <c r="B968"/>
+        <v>1841</v>
+      </c>
+      <c r="B968" t="s">
+        <v>1842</v>
+      </c>
       <c r="C968"/>
       <c r="D968" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E968" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="969" spans="1:5">
       <c r="A969" t="s">
-        <v>1689</v>
-      </c>
-      <c r="B969"/>
+        <v>1843</v>
+      </c>
+      <c r="B969" t="s">
+        <v>1844</v>
+      </c>
       <c r="C969"/>
       <c r="D969" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E969" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="970" spans="1:5">
       <c r="A970" t="s">
-        <v>1690</v>
-      </c>
-      <c r="B970"/>
+        <v>1845</v>
+      </c>
+      <c r="B970" t="s">
+        <v>1846</v>
+      </c>
       <c r="C970"/>
       <c r="D970" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E970" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="971" spans="1:5">
       <c r="A971" t="s">
-        <v>1691</v>
-      </c>
-      <c r="B971"/>
+        <v>1847</v>
+      </c>
+      <c r="B971" t="s">
+        <v>1848</v>
+      </c>
       <c r="C971"/>
       <c r="D971" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E971" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="972" spans="1:5">
       <c r="A972" t="s">
-        <v>1692</v>
-      </c>
-      <c r="B972"/>
+        <v>1849</v>
+      </c>
+      <c r="B972" t="s">
+        <v>1850</v>
+      </c>
       <c r="C972"/>
       <c r="D972" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E972" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="973" spans="1:5">
       <c r="A973" t="s">
-        <v>1693</v>
-      </c>
-      <c r="B973"/>
+        <v>1851</v>
+      </c>
+      <c r="B973" t="s">
+        <v>1852</v>
+      </c>
       <c r="C973"/>
       <c r="D973" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E973" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="974" spans="1:5">
       <c r="A974" t="s">
-        <v>1694</v>
-      </c>
-      <c r="B974"/>
+        <v>1853</v>
+      </c>
+      <c r="B974" t="s">
+        <v>1854</v>
+      </c>
       <c r="C974"/>
       <c r="D974" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E974" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="975" spans="1:5">
       <c r="A975" t="s">
-        <v>1695</v>
-      </c>
-      <c r="B975"/>
+        <v>1855</v>
+      </c>
+      <c r="B975" t="s">
+        <v>1856</v>
+      </c>
       <c r="C975"/>
       <c r="D975" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E975" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="976" spans="1:5">
       <c r="A976" t="s">
-        <v>1696</v>
-      </c>
-      <c r="B976"/>
+        <v>1857</v>
+      </c>
+      <c r="B976" t="s">
+        <v>1214</v>
+      </c>
       <c r="C976"/>
       <c r="D976" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E976" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="977" spans="1:5">
       <c r="A977" t="s">
-        <v>1697</v>
-      </c>
-      <c r="B977"/>
+        <v>1858</v>
+      </c>
+      <c r="B977" t="s">
+        <v>1859</v>
+      </c>
       <c r="C977"/>
       <c r="D977" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E977" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="978" spans="1:5">
       <c r="A978" t="s">
-        <v>1698</v>
-      </c>
-      <c r="B978"/>
+        <v>1860</v>
+      </c>
+      <c r="B978" t="s">
+        <v>1861</v>
+      </c>
       <c r="C978"/>
       <c r="D978" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E978" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="979" spans="1:5">
       <c r="A979" t="s">
-        <v>1699</v>
-      </c>
-      <c r="B979"/>
+        <v>1862</v>
+      </c>
+      <c r="B979" t="s">
+        <v>1863</v>
+      </c>
       <c r="C979"/>
       <c r="D979" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E979" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="980" spans="1:5">
       <c r="A980" t="s">
-        <v>1700</v>
-      </c>
-      <c r="B980"/>
+        <v>1864</v>
+      </c>
+      <c r="B980" t="s">
+        <v>1865</v>
+      </c>
       <c r="C980"/>
       <c r="D980" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E980" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="981" spans="1:5">
       <c r="A981" t="s">
-        <v>1701</v>
-      </c>
-      <c r="B981"/>
+        <v>1866</v>
+      </c>
+      <c r="B981" t="s">
+        <v>1867</v>
+      </c>
       <c r="C981"/>
       <c r="D981" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E981" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="982" spans="1:5">
       <c r="A982" t="s">
-        <v>1702</v>
-      </c>
-      <c r="B982"/>
+        <v>1868</v>
+      </c>
+      <c r="B982" t="s">
+        <v>1869</v>
+      </c>
       <c r="C982"/>
       <c r="D982" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E982" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="983" spans="1:5">
       <c r="A983" t="s">
-        <v>1703</v>
-      </c>
-      <c r="B983"/>
+        <v>1870</v>
+      </c>
+      <c r="B983" t="s">
+        <v>1871</v>
+      </c>
       <c r="C983"/>
       <c r="D983" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E983" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="984" spans="1:5">
       <c r="A984" t="s">
-        <v>1704</v>
-      </c>
-      <c r="B984"/>
+        <v>1872</v>
+      </c>
+      <c r="B984" t="s">
+        <v>1873</v>
+      </c>
       <c r="C984"/>
       <c r="D984" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E984" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="985" spans="1:5">
       <c r="A985" t="s">
-        <v>1705</v>
-      </c>
-      <c r="B985"/>
+        <v>1874</v>
+      </c>
+      <c r="B985" t="s">
+        <v>1875</v>
+      </c>
       <c r="C985"/>
       <c r="D985" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E985" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="986" spans="1:5">
       <c r="A986" t="s">
-        <v>1706</v>
-      </c>
-      <c r="B986"/>
+        <v>1876</v>
+      </c>
+      <c r="B986" t="s">
+        <v>1877</v>
+      </c>
       <c r="C986"/>
       <c r="D986" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E986" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="987" spans="1:5">
       <c r="A987" t="s">
-        <v>1707</v>
-      </c>
-      <c r="B987"/>
+        <v>1878</v>
+      </c>
+      <c r="B987" t="s">
+        <v>1879</v>
+      </c>
       <c r="C987"/>
       <c r="D987" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E987" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="988" spans="1:5">
       <c r="A988" t="s">
-        <v>1708</v>
-      </c>
-      <c r="B988"/>
+        <v>1880</v>
+      </c>
+      <c r="B988" t="s">
+        <v>1881</v>
+      </c>
       <c r="C988"/>
       <c r="D988" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E988" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="989" spans="1:5">
       <c r="A989" t="s">
-        <v>1709</v>
-      </c>
-      <c r="B989"/>
+        <v>1882</v>
+      </c>
+      <c r="B989" t="s">
+        <v>1883</v>
+      </c>
       <c r="C989"/>
       <c r="D989" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E989" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="990" spans="1:5">
       <c r="A990" t="s">
-        <v>1710</v>
-      </c>
-      <c r="B990"/>
+        <v>1884</v>
+      </c>
+      <c r="B990" t="s">
+        <v>1885</v>
+      </c>
       <c r="C990"/>
       <c r="D990" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E990" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="991" spans="1:5">
       <c r="A991" t="s">
-        <v>1711</v>
-      </c>
-      <c r="B991"/>
+        <v>1886</v>
+      </c>
+      <c r="B991" t="s">
+        <v>1887</v>
+      </c>
       <c r="C991"/>
       <c r="D991" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E991" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="992" spans="1:5">
       <c r="A992" t="s">
-        <v>1712</v>
-      </c>
-      <c r="B992"/>
+        <v>1888</v>
+      </c>
+      <c r="B992" t="s">
+        <v>1889</v>
+      </c>
       <c r="C992"/>
       <c r="D992" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E992" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="993" spans="1:5">
       <c r="A993" t="s">
-        <v>1713</v>
-      </c>
-      <c r="B993"/>
+        <v>1890</v>
+      </c>
+      <c r="B993" t="s">
+        <v>1891</v>
+      </c>
       <c r="C993"/>
       <c r="D993" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E993" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="994" spans="1:5">
       <c r="A994" t="s">
-        <v>1714</v>
-      </c>
-      <c r="B994"/>
+        <v>1892</v>
+      </c>
+      <c r="B994" t="s">
+        <v>487</v>
+      </c>
       <c r="C994"/>
       <c r="D994" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E994" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="995" spans="1:5">
       <c r="A995" t="s">
-        <v>1715</v>
-      </c>
-      <c r="B995"/>
+        <v>1893</v>
+      </c>
+      <c r="B995" t="s">
+        <v>1078</v>
+      </c>
       <c r="C995"/>
       <c r="D995" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E995" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="996" spans="1:5">
       <c r="A996" t="s">
-        <v>1716</v>
-      </c>
-      <c r="B996"/>
+        <v>1894</v>
+      </c>
+      <c r="B996" t="s">
+        <v>1895</v>
+      </c>
       <c r="C996"/>
       <c r="D996" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E996" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="997" spans="1:5">
       <c r="A997" t="s">
-        <v>1717</v>
-      </c>
-      <c r="B997"/>
+        <v>1896</v>
+      </c>
+      <c r="B997" t="s">
+        <v>1897</v>
+      </c>
       <c r="C997"/>
       <c r="D997" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E997" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="998" spans="1:5">
       <c r="A998" t="s">
-        <v>1718</v>
-      </c>
-      <c r="B998"/>
+        <v>1898</v>
+      </c>
+      <c r="B998" t="s">
+        <v>1899</v>
+      </c>
       <c r="C998"/>
       <c r="D998" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E998" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="999" spans="1:5">
       <c r="A999" t="s">
-        <v>1719</v>
-      </c>
-      <c r="B999"/>
+        <v>1900</v>
+      </c>
+      <c r="B999" t="s">
+        <v>969</v>
+      </c>
       <c r="C999"/>
       <c r="D999" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E999" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="1000" spans="1:5">
       <c r="A1000" t="s">
-        <v>1720</v>
-      </c>
-      <c r="B1000"/>
+        <v>1901</v>
+      </c>
+      <c r="B1000" t="s">
+        <v>737</v>
+      </c>
       <c r="C1000"/>
       <c r="D1000" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E1000" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="1001" spans="1:5">
       <c r="A1001" t="s">
-        <v>1721</v>
-      </c>
-      <c r="B1001"/>
+        <v>1902</v>
+      </c>
+      <c r="B1001" t="s">
+        <v>261</v>
+      </c>
       <c r="C1001"/>
       <c r="D1001" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E1001" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="1002" spans="1:5">
       <c r="A1002" t="s">
-        <v>1722</v>
-      </c>
-      <c r="B1002"/>
+        <v>1903</v>
+      </c>
+      <c r="B1002" t="s">
+        <v>1045</v>
+      </c>
       <c r="C1002"/>
       <c r="D1002" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E1002" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="1003" spans="1:5">
       <c r="A1003" t="s">
-        <v>1723</v>
-      </c>
-      <c r="B1003"/>
+        <v>1904</v>
+      </c>
+      <c r="B1003" t="s">
+        <v>63</v>
+      </c>
       <c r="C1003"/>
       <c r="D1003" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E1003" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="1004" spans="1:5">
       <c r="A1004" t="s">
-        <v>1724</v>
-      </c>
-      <c r="B1004"/>
+        <v>1905</v>
+      </c>
+      <c r="B1004" t="s">
+        <v>1906</v>
+      </c>
       <c r="C1004"/>
       <c r="D1004" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E1004" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="1005" spans="1:5">
       <c r="A1005" t="s">
-        <v>1725</v>
-      </c>
-      <c r="B1005"/>
+        <v>1907</v>
+      </c>
+      <c r="B1005" t="s">
+        <v>768</v>
+      </c>
       <c r="C1005"/>
       <c r="D1005" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E1005" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="1006" spans="1:5">
       <c r="A1006" t="s">
-        <v>1726</v>
-      </c>
-      <c r="B1006"/>
+        <v>1908</v>
+      </c>
+      <c r="B1006" t="s">
+        <v>1909</v>
+      </c>
       <c r="C1006"/>
       <c r="D1006" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E1006" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="1007" spans="1:5">
       <c r="A1007" t="s">
-        <v>1727</v>
-      </c>
-      <c r="B1007"/>
+        <v>1910</v>
+      </c>
+      <c r="B1007" t="s">
+        <v>1911</v>
+      </c>
       <c r="C1007"/>
       <c r="D1007" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E1007" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="1008" spans="1:5">
       <c r="A1008" t="s">
-        <v>1728</v>
-      </c>
-      <c r="B1008"/>
+        <v>1912</v>
+      </c>
+      <c r="B1008" t="s">
+        <v>1913</v>
+      </c>
       <c r="C1008"/>
       <c r="D1008" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E1008" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="1009" spans="1:5">
       <c r="A1009" t="s">
-        <v>1729</v>
-      </c>
-      <c r="B1009"/>
+        <v>1914</v>
+      </c>
+      <c r="B1009" t="s">
+        <v>1915</v>
+      </c>
       <c r="C1009"/>
       <c r="D1009" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E1009" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="1010" spans="1:5">
       <c r="A1010" t="s">
-        <v>1730</v>
-      </c>
-      <c r="B1010"/>
+        <v>1916</v>
+      </c>
+      <c r="B1010" t="s">
+        <v>1917</v>
+      </c>
       <c r="C1010"/>
       <c r="D1010" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E1010" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="1011" spans="1:5">
       <c r="A1011" t="s">
-        <v>1731</v>
-      </c>
-      <c r="B1011"/>
+        <v>1918</v>
+      </c>
+      <c r="B1011" t="s">
+        <v>1919</v>
+      </c>
       <c r="C1011"/>
       <c r="D1011" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E1011" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="1012" spans="1:5">
       <c r="A1012" t="s">
-        <v>1732</v>
-      </c>
-      <c r="B1012"/>
+        <v>1920</v>
+      </c>
+      <c r="B1012" t="s">
+        <v>950</v>
+      </c>
       <c r="C1012"/>
       <c r="D1012" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E1012" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="1013" spans="1:5">
       <c r="A1013" t="s">
-        <v>1733</v>
-      </c>
-      <c r="B1013"/>
+        <v>1921</v>
+      </c>
+      <c r="B1013" t="s">
+        <v>1922</v>
+      </c>
       <c r="C1013"/>
       <c r="D1013" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E1013" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="1014" spans="1:5">
       <c r="A1014" t="s">
-        <v>1734</v>
-      </c>
-      <c r="B1014"/>
+        <v>1923</v>
+      </c>
+      <c r="B1014" t="s">
+        <v>1924</v>
+      </c>
       <c r="C1014"/>
       <c r="D1014" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E1014" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="1015" spans="1:5">
       <c r="A1015" t="s">
-        <v>1735</v>
-      </c>
-      <c r="B1015"/>
+        <v>1925</v>
+      </c>
+      <c r="B1015" t="s">
+        <v>1926</v>
+      </c>
       <c r="C1015"/>
       <c r="D1015" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E1015" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="1016" spans="1:5">
       <c r="A1016" t="s">
-        <v>1736</v>
-      </c>
-      <c r="B1016"/>
+        <v>1927</v>
+      </c>
+      <c r="B1016" t="s">
+        <v>1928</v>
+      </c>
       <c r="C1016"/>
       <c r="D1016" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E1016" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="1017" spans="1:5">
       <c r="A1017" t="s">
-        <v>1737</v>
-      </c>
-      <c r="B1017"/>
+        <v>1929</v>
+      </c>
+      <c r="B1017" t="s">
+        <v>1930</v>
+      </c>
       <c r="C1017"/>
       <c r="D1017" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E1017" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="1018" spans="1:5">
       <c r="A1018" t="s">
-        <v>1738</v>
-      </c>
-      <c r="B1018"/>
+        <v>1931</v>
+      </c>
+      <c r="B1018" t="s">
+        <v>1852</v>
+      </c>
       <c r="C1018"/>
       <c r="D1018" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E1018" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="1019" spans="1:5">
       <c r="A1019" t="s">
-        <v>1739</v>
-      </c>
-      <c r="B1019"/>
+        <v>1932</v>
+      </c>
+      <c r="B1019" t="s">
+        <v>1933</v>
+      </c>
       <c r="C1019"/>
       <c r="D1019" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E1019" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="1020" spans="1:5">
       <c r="A1020" t="s">
-        <v>1740</v>
-      </c>
-      <c r="B1020"/>
+        <v>1934</v>
+      </c>
+      <c r="B1020" t="s">
+        <v>1935</v>
+      </c>
       <c r="C1020"/>
       <c r="D1020" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E1020" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="1021" spans="1:5">
       <c r="A1021" t="s">
-        <v>1741</v>
-      </c>
-      <c r="B1021"/>
+        <v>1936</v>
+      </c>
+      <c r="B1021" t="s">
+        <v>1937</v>
+      </c>
       <c r="C1021"/>
       <c r="D1021" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E1021" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="1022" spans="1:5">
       <c r="A1022" t="s">
-        <v>1742</v>
-      </c>
-      <c r="B1022"/>
+        <v>1938</v>
+      </c>
+      <c r="B1022" t="s">
+        <v>1048</v>
+      </c>
       <c r="C1022"/>
       <c r="D1022" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E1022" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="1023" spans="1:5">
       <c r="A1023" t="s">
-        <v>1743</v>
-      </c>
-      <c r="B1023"/>
+        <v>1939</v>
+      </c>
+      <c r="B1023" t="s">
+        <v>1198</v>
+      </c>
       <c r="C1023"/>
       <c r="D1023" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E1023" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="1024" spans="1:5">
       <c r="A1024" t="s">
-        <v>1744</v>
-      </c>
-      <c r="B1024"/>
+        <v>1940</v>
+      </c>
+      <c r="B1024" t="s">
+        <v>391</v>
+      </c>
       <c r="C1024"/>
       <c r="D1024" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E1024" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="1025" spans="1:5">
       <c r="A1025" t="s">
-        <v>1745</v>
-      </c>
-      <c r="B1025"/>
+        <v>1941</v>
+      </c>
+      <c r="B1025" t="s">
+        <v>1942</v>
+      </c>
       <c r="C1025"/>
       <c r="D1025" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E1025" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="1026" spans="1:5">
       <c r="A1026" t="s">
-        <v>1746</v>
-      </c>
-      <c r="B1026"/>
+        <v>1943</v>
+      </c>
+      <c r="B1026" t="s">
+        <v>1944</v>
+      </c>
       <c r="C1026"/>
       <c r="D1026" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E1026" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="1027" spans="1:5">
       <c r="A1027" t="s">
-        <v>1747</v>
-      </c>
-      <c r="B1027"/>
+        <v>1945</v>
+      </c>
+      <c r="B1027" t="s">
+        <v>1699</v>
+      </c>
       <c r="C1027"/>
       <c r="D1027" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E1027" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="1028" spans="1:5">
       <c r="A1028" t="s">
-        <v>1748</v>
-      </c>
-      <c r="B1028"/>
+        <v>1946</v>
+      </c>
+      <c r="B1028" t="s">
+        <v>1947</v>
+      </c>
       <c r="C1028"/>
       <c r="D1028" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E1028" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="1029" spans="1:5">
       <c r="A1029" t="s">
-        <v>1749</v>
-      </c>
-      <c r="B1029"/>
+        <v>1948</v>
+      </c>
+      <c r="B1029" t="s">
+        <v>1703</v>
+      </c>
       <c r="C1029"/>
       <c r="D1029" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E1029" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="1030" spans="1:5">
       <c r="A1030" t="s">
-        <v>1750</v>
-      </c>
-      <c r="B1030"/>
+        <v>1949</v>
+      </c>
+      <c r="B1030" t="s">
+        <v>1950</v>
+      </c>
       <c r="C1030"/>
       <c r="D1030" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E1030" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="1031" spans="1:5">
       <c r="A1031" t="s">
-        <v>1751</v>
-      </c>
-      <c r="B1031"/>
+        <v>1951</v>
+      </c>
+      <c r="B1031" t="s">
+        <v>1952</v>
+      </c>
       <c r="C1031"/>
       <c r="D1031" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E1031" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="1032" spans="1:5">
       <c r="A1032" t="s">
-        <v>1752</v>
-      </c>
-      <c r="B1032"/>
+        <v>1953</v>
+      </c>
+      <c r="B1032" t="s">
+        <v>1954</v>
+      </c>
       <c r="C1032"/>
       <c r="D1032" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E1032" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="1033" spans="1:5">
       <c r="A1033" t="s">
-        <v>1753</v>
-      </c>
-      <c r="B1033"/>
+        <v>1955</v>
+      </c>
+      <c r="B1033" t="s">
+        <v>1956</v>
+      </c>
       <c r="C1033"/>
       <c r="D1033" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E1033" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="1034" spans="1:5">
       <c r="A1034" t="s">
-        <v>1754</v>
-      </c>
-      <c r="B1034"/>
+        <v>1957</v>
+      </c>
+      <c r="B1034" t="s">
+        <v>1958</v>
+      </c>
       <c r="C1034"/>
       <c r="D1034" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E1034" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="1035" spans="1:5">
       <c r="A1035" t="s">
-        <v>1755</v>
-      </c>
-      <c r="B1035"/>
+        <v>1959</v>
+      </c>
+      <c r="B1035" t="s">
+        <v>1960</v>
+      </c>
       <c r="C1035"/>
       <c r="D1035" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E1035" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="1036" spans="1:5">
       <c r="A1036" t="s">
-        <v>1756</v>
-      </c>
-      <c r="B1036"/>
+        <v>1961</v>
+      </c>
+      <c r="B1036" t="s">
+        <v>1962</v>
+      </c>
       <c r="C1036"/>
       <c r="D1036" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E1036" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="1037" spans="1:5">
       <c r="A1037" t="s">
-        <v>1757</v>
-      </c>
-      <c r="B1037"/>
+        <v>1963</v>
+      </c>
+      <c r="B1037" t="s">
+        <v>443</v>
+      </c>
       <c r="C1037"/>
       <c r="D1037" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E1037" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="1038" spans="1:5">
       <c r="A1038" t="s">
-        <v>1758</v>
-      </c>
-      <c r="B1038"/>
+        <v>1964</v>
+      </c>
+      <c r="B1038" t="s">
+        <v>1965</v>
+      </c>
       <c r="C1038"/>
       <c r="D1038" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E1038" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="1039" spans="1:5">
       <c r="A1039" t="s">
-        <v>1759</v>
-      </c>
-      <c r="B1039"/>
+        <v>1966</v>
+      </c>
+      <c r="B1039" t="s">
+        <v>1078</v>
+      </c>
       <c r="C1039"/>
       <c r="D1039" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E1039" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="1040" spans="1:5">
       <c r="A1040" t="s">
-        <v>1760</v>
-      </c>
-      <c r="B1040"/>
+        <v>1967</v>
+      </c>
+      <c r="B1040" t="s">
+        <v>1968</v>
+      </c>
       <c r="C1040"/>
       <c r="D1040" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E1040" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="1041" spans="1:5">
       <c r="A1041" t="s">
-        <v>1761</v>
-      </c>
-      <c r="B1041"/>
+        <v>1969</v>
+      </c>
+      <c r="B1041" t="s">
+        <v>1970</v>
+      </c>
       <c r="C1041"/>
       <c r="D1041" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E1041" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="1042" spans="1:5">
       <c r="A1042" t="s">
-        <v>1762</v>
-      </c>
-      <c r="B1042"/>
+        <v>1971</v>
+      </c>
+      <c r="B1042" t="s">
+        <v>1972</v>
+      </c>
       <c r="C1042"/>
       <c r="D1042" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E1042" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="1043" spans="1:5">
       <c r="A1043" t="s">
-        <v>1763</v>
-      </c>
-      <c r="B1043"/>
+        <v>1973</v>
+      </c>
+      <c r="B1043" t="s">
+        <v>1974</v>
+      </c>
       <c r="C1043"/>
       <c r="D1043" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E1043" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="1044" spans="1:5">
       <c r="A1044" t="s">
-        <v>1764</v>
-      </c>
-      <c r="B1044"/>
+        <v>1975</v>
+      </c>
+      <c r="B1044" t="s">
+        <v>915</v>
+      </c>
       <c r="C1044"/>
       <c r="D1044" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E1044" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="1045" spans="1:5">
       <c r="A1045" t="s">
-        <v>1765</v>
-      </c>
-      <c r="B1045"/>
+        <v>1976</v>
+      </c>
+      <c r="B1045" t="s">
+        <v>1977</v>
+      </c>
       <c r="C1045"/>
       <c r="D1045" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E1045" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="1046" spans="1:5">
       <c r="A1046" t="s">
-        <v>1766</v>
-      </c>
-      <c r="B1046"/>
+        <v>1978</v>
+      </c>
+      <c r="B1046" t="s">
+        <v>1979</v>
+      </c>
       <c r="C1046"/>
       <c r="D1046" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E1046" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="1047" spans="1:5">
       <c r="A1047" t="s">
-        <v>1767</v>
-      </c>
-      <c r="B1047"/>
+        <v>1980</v>
+      </c>
+      <c r="B1047" t="s">
+        <v>1981</v>
+      </c>
       <c r="C1047"/>
       <c r="D1047" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E1047" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="1048" spans="1:5">
       <c r="A1048" t="s">
-        <v>1768</v>
-      </c>
-      <c r="B1048"/>
+        <v>1982</v>
+      </c>
+      <c r="B1048" t="s">
+        <v>1983</v>
+      </c>
       <c r="C1048"/>
       <c r="D1048" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E1048" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="1049" spans="1:5">
       <c r="A1049" t="s">
-        <v>1769</v>
-      </c>
-      <c r="B1049"/>
+        <v>1984</v>
+      </c>
+      <c r="B1049" t="s">
+        <v>1985</v>
+      </c>
       <c r="C1049"/>
       <c r="D1049" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E1049" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="1050" spans="1:5">
       <c r="A1050" t="s">
-        <v>1770</v>
-      </c>
-      <c r="B1050"/>
+        <v>1986</v>
+      </c>
+      <c r="B1050" t="s">
+        <v>1007</v>
+      </c>
       <c r="C1050"/>
       <c r="D1050" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E1050" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="1051" spans="1:5">
       <c r="A1051" t="s">
-        <v>1771</v>
-      </c>
-      <c r="B1051"/>
+        <v>1987</v>
+      </c>
+      <c r="B1051" t="s">
+        <v>293</v>
+      </c>
       <c r="C1051"/>
       <c r="D1051" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E1051" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="1052" spans="1:5">
       <c r="A1052" t="s">
-        <v>1772</v>
-      </c>
-      <c r="B1052"/>
+        <v>1988</v>
+      </c>
+      <c r="B1052" t="s">
+        <v>1989</v>
+      </c>
       <c r="C1052"/>
       <c r="D1052" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E1052" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="1053" spans="1:5">
       <c r="A1053" t="s">
-        <v>1773</v>
-      </c>
-      <c r="B1053"/>
+        <v>1990</v>
+      </c>
+      <c r="B1053" t="s">
+        <v>1991</v>
+      </c>
       <c r="C1053"/>
       <c r="D1053" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E1053" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="1054" spans="1:5">
       <c r="A1054" t="s">
-        <v>1774</v>
-      </c>
-      <c r="B1054"/>
+        <v>1992</v>
+      </c>
+      <c r="B1054" t="s">
+        <v>845</v>
+      </c>
       <c r="C1054"/>
       <c r="D1054" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E1054" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="1055" spans="1:5">
       <c r="A1055" t="s">
-        <v>1775</v>
-      </c>
-      <c r="B1055"/>
+        <v>1993</v>
+      </c>
+      <c r="B1055" t="s">
+        <v>1994</v>
+      </c>
       <c r="C1055"/>
       <c r="D1055" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E1055" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="1056" spans="1:5">
       <c r="A1056" t="s">
-        <v>1776</v>
-      </c>
-      <c r="B1056"/>
+        <v>1995</v>
+      </c>
+      <c r="B1056" t="s">
+        <v>1996</v>
+      </c>
       <c r="C1056"/>
       <c r="D1056" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E1056" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="1057" spans="1:5">
       <c r="A1057" t="s">
-        <v>1777</v>
-      </c>
-      <c r="B1057"/>
+        <v>1997</v>
+      </c>
+      <c r="B1057" t="s">
+        <v>1086</v>
+      </c>
       <c r="C1057"/>
       <c r="D1057" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E1057" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="1058" spans="1:5">
       <c r="A1058" t="s">
-        <v>1778</v>
-      </c>
-      <c r="B1058"/>
+        <v>1998</v>
+      </c>
+      <c r="B1058" t="s">
+        <v>1999</v>
+      </c>
       <c r="C1058"/>
       <c r="D1058" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E1058" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="1059" spans="1:5">
       <c r="A1059" t="s">
-        <v>1779</v>
-      </c>
-      <c r="B1059"/>
+        <v>2000</v>
+      </c>
+      <c r="B1059" t="s">
+        <v>2001</v>
+      </c>
       <c r="C1059"/>
       <c r="D1059" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E1059" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="1060" spans="1:5">
       <c r="A1060" t="s">
-        <v>1780</v>
-      </c>
-      <c r="B1060"/>
+        <v>2002</v>
+      </c>
+      <c r="B1060" t="s">
+        <v>2003</v>
+      </c>
       <c r="C1060"/>
       <c r="D1060" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E1060" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="1061" spans="1:5">
       <c r="A1061" t="s">
-        <v>1781</v>
-      </c>
-      <c r="B1061"/>
+        <v>2004</v>
+      </c>
+      <c r="B1061" t="s">
+        <v>1048</v>
+      </c>
       <c r="C1061"/>
       <c r="D1061" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E1061" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="1062" spans="1:5">
       <c r="A1062" t="s">
-        <v>1782</v>
-      </c>
-      <c r="B1062"/>
+        <v>2005</v>
+      </c>
+      <c r="B1062" t="s">
+        <v>2006</v>
+      </c>
       <c r="C1062"/>
       <c r="D1062" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E1062" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="1063" spans="1:5">
       <c r="A1063" t="s">
-        <v>1783</v>
-      </c>
-      <c r="B1063"/>
+        <v>2007</v>
+      </c>
+      <c r="B1063" t="s">
+        <v>2008</v>
+      </c>
       <c r="C1063"/>
       <c r="D1063" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E1063" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="1064" spans="1:5">
       <c r="A1064" t="s">
-        <v>1784</v>
-      </c>
-      <c r="B1064"/>
+        <v>2009</v>
+      </c>
+      <c r="B1064" t="s">
+        <v>741</v>
+      </c>
       <c r="C1064"/>
       <c r="D1064" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E1064" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="1065" spans="1:5">
       <c r="A1065" t="s">
-        <v>1785</v>
-      </c>
-      <c r="B1065"/>
+        <v>2010</v>
+      </c>
+      <c r="B1065" t="s">
+        <v>2011</v>
+      </c>
       <c r="C1065"/>
       <c r="D1065" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E1065" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="1066" spans="1:5">
       <c r="A1066" t="s">
-        <v>1786</v>
-      </c>
-      <c r="B1066"/>
+        <v>2012</v>
+      </c>
+      <c r="B1066" t="s">
+        <v>2013</v>
+      </c>
       <c r="C1066"/>
       <c r="D1066" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E1066" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="1067" spans="1:5">
       <c r="A1067" t="s">
-        <v>1787</v>
-      </c>
-      <c r="B1067"/>
+        <v>2014</v>
+      </c>
+      <c r="B1067" t="s">
+        <v>2015</v>
+      </c>
       <c r="C1067"/>
       <c r="D1067" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E1067" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="1068" spans="1:5">
       <c r="A1068" t="s">
-        <v>1788</v>
-      </c>
-      <c r="B1068"/>
+        <v>2016</v>
+      </c>
+      <c r="B1068" t="s">
+        <v>2017</v>
+      </c>
       <c r="C1068"/>
       <c r="D1068" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E1068" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="1069" spans="1:5">
       <c r="A1069" t="s">
-        <v>1789</v>
-      </c>
-      <c r="B1069"/>
+        <v>2018</v>
+      </c>
+      <c r="B1069" t="s">
+        <v>361</v>
+      </c>
       <c r="C1069"/>
       <c r="D1069" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E1069" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="1070" spans="1:5">
       <c r="A1070" t="s">
-        <v>1790</v>
-      </c>
-      <c r="B1070"/>
+        <v>2019</v>
+      </c>
+      <c r="B1070" t="s">
+        <v>2020</v>
+      </c>
       <c r="C1070"/>
       <c r="D1070" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E1070" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="1071" spans="1:5">
       <c r="A1071" t="s">
-        <v>1791</v>
-      </c>
-      <c r="B1071"/>
+        <v>2021</v>
+      </c>
+      <c r="B1071" t="s">
+        <v>2022</v>
+      </c>
       <c r="C1071"/>
       <c r="D1071" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E1071" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="1072" spans="1:5">
       <c r="A1072" t="s">
-        <v>1792</v>
-      </c>
-      <c r="B1072"/>
+        <v>2023</v>
+      </c>
+      <c r="B1072" t="s">
+        <v>2024</v>
+      </c>
       <c r="C1072"/>
       <c r="D1072" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E1072" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="1073" spans="1:5">
       <c r="A1073" t="s">
-        <v>1793</v>
-      </c>
-      <c r="B1073"/>
+        <v>2025</v>
+      </c>
+      <c r="B1073" t="s">
+        <v>2026</v>
+      </c>
       <c r="C1073"/>
       <c r="D1073" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E1073" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="1074" spans="1:5">
       <c r="A1074" t="s">
-        <v>1794</v>
-      </c>
-      <c r="B1074"/>
+        <v>2027</v>
+      </c>
+      <c r="B1074" t="s">
+        <v>2028</v>
+      </c>
       <c r="C1074"/>
       <c r="D1074" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E1074" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="1075" spans="1:5">
       <c r="A1075" t="s">
-        <v>1795</v>
-      </c>
-      <c r="B1075"/>
+        <v>2029</v>
+      </c>
+      <c r="B1075" t="s">
+        <v>2030</v>
+      </c>
       <c r="C1075"/>
       <c r="D1075" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E1075" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="1076" spans="1:5">
       <c r="A1076" t="s">
-        <v>1796</v>
-      </c>
-      <c r="B1076"/>
+        <v>2031</v>
+      </c>
+      <c r="B1076" t="s">
+        <v>2032</v>
+      </c>
       <c r="C1076"/>
       <c r="D1076" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E1076" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="1077" spans="1:5">
       <c r="A1077" t="s">
-        <v>1797</v>
-      </c>
-      <c r="B1077"/>
+        <v>2033</v>
+      </c>
+      <c r="B1077" t="s">
+        <v>2034</v>
+      </c>
       <c r="C1077"/>
       <c r="D1077" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E1077" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="1078" spans="1:5">
       <c r="A1078" t="s">
-        <v>1798</v>
-      </c>
-      <c r="B1078"/>
+        <v>2035</v>
+      </c>
+      <c r="B1078" t="s">
+        <v>1594</v>
+      </c>
       <c r="C1078"/>
       <c r="D1078" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E1078" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="1079" spans="1:5">
       <c r="A1079" t="s">
-        <v>1799</v>
-      </c>
-      <c r="B1079"/>
+        <v>2036</v>
+      </c>
+      <c r="B1079" t="s">
+        <v>2037</v>
+      </c>
       <c r="C1079"/>
       <c r="D1079" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E1079" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="1080" spans="1:5">
       <c r="A1080" t="s">
-        <v>1800</v>
-      </c>
-      <c r="B1080"/>
+        <v>2038</v>
+      </c>
+      <c r="B1080" t="s">
+        <v>2039</v>
+      </c>
       <c r="C1080"/>
       <c r="D1080" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E1080" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="1081" spans="1:5">
       <c r="A1081" t="s">
-        <v>1801</v>
-      </c>
-      <c r="B1081"/>
+        <v>2040</v>
+      </c>
+      <c r="B1081" t="s">
+        <v>2041</v>
+      </c>
       <c r="C1081"/>
       <c r="D1081" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E1081" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="1082" spans="1:5">
       <c r="A1082" t="s">
-        <v>1802</v>
-      </c>
-      <c r="B1082"/>
+        <v>2042</v>
+      </c>
+      <c r="B1082" t="s">
+        <v>2043</v>
+      </c>
       <c r="C1082"/>
       <c r="D1082" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E1082" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="1083" spans="1:5">
       <c r="A1083" t="s">
-        <v>1803</v>
-      </c>
-      <c r="B1083"/>
+        <v>2044</v>
+      </c>
+      <c r="B1083" t="s">
+        <v>2045</v>
+      </c>
       <c r="C1083"/>
       <c r="D1083" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E1083" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="1084" spans="1:5">
       <c r="A1084" t="s">
-        <v>1804</v>
-      </c>
-      <c r="B1084"/>
+        <v>2046</v>
+      </c>
+      <c r="B1084" t="s">
+        <v>2047</v>
+      </c>
       <c r="C1084"/>
       <c r="D1084" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E1084" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="1085" spans="1:5">
       <c r="A1085" t="s">
-        <v>1805</v>
-      </c>
-      <c r="B1085"/>
+        <v>2048</v>
+      </c>
+      <c r="B1085" t="s">
+        <v>2049</v>
+      </c>
       <c r="C1085"/>
       <c r="D1085" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E1085" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="1086" spans="1:5">
       <c r="A1086" t="s">
-        <v>1806</v>
-      </c>
-      <c r="B1086"/>
+        <v>2050</v>
+      </c>
+      <c r="B1086" t="s">
+        <v>2051</v>
+      </c>
       <c r="C1086"/>
       <c r="D1086" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E1086" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="1087" spans="1:5">
       <c r="A1087" t="s">
-        <v>1807</v>
-      </c>
-      <c r="B1087"/>
+        <v>2052</v>
+      </c>
+      <c r="B1087" t="s">
+        <v>2053</v>
+      </c>
       <c r="C1087"/>
       <c r="D1087" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E1087" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="1088" spans="1:5">
       <c r="A1088" t="s">
-        <v>1808</v>
-      </c>
-      <c r="B1088"/>
+        <v>2054</v>
+      </c>
+      <c r="B1088" t="s">
+        <v>2055</v>
+      </c>
       <c r="C1088"/>
       <c r="D1088" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E1088" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="1089" spans="1:5">
       <c r="A1089" t="s">
-        <v>1809</v>
-      </c>
-      <c r="B1089"/>
+        <v>2056</v>
+      </c>
+      <c r="B1089" t="s">
+        <v>2057</v>
+      </c>
       <c r="C1089"/>
       <c r="D1089" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E1089" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="1090" spans="1:5">
       <c r="A1090" t="s">
-        <v>1810</v>
-      </c>
-      <c r="B1090"/>
+        <v>2058</v>
+      </c>
+      <c r="B1090" t="s">
+        <v>2059</v>
+      </c>
       <c r="C1090"/>
       <c r="D1090" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E1090" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="1091" spans="1:5">
       <c r="A1091" t="s">
-        <v>1811</v>
-      </c>
-      <c r="B1091"/>
+        <v>2060</v>
+      </c>
+      <c r="B1091" t="s">
+        <v>2061</v>
+      </c>
       <c r="C1091"/>
       <c r="D1091" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E1091" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="1092" spans="1:5">
       <c r="A1092" t="s">
-        <v>1812</v>
-      </c>
-      <c r="B1092"/>
+        <v>2062</v>
+      </c>
+      <c r="B1092" t="s">
+        <v>2063</v>
+      </c>
       <c r="C1092"/>
       <c r="D1092" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E1092" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="1093" spans="1:5">
       <c r="A1093" t="s">
-        <v>1813</v>
-      </c>
-      <c r="B1093"/>
+        <v>2064</v>
+      </c>
+      <c r="B1093" t="s">
+        <v>2065</v>
+      </c>
       <c r="C1093"/>
       <c r="D1093" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E1093" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="1094" spans="1:5">
       <c r="A1094" t="s">
-        <v>1814</v>
-      </c>
-      <c r="B1094"/>
+        <v>2066</v>
+      </c>
+      <c r="B1094" t="s">
+        <v>2067</v>
+      </c>
       <c r="C1094"/>
       <c r="D1094" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E1094" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="1095" spans="1:5">
       <c r="A1095" t="s">
-        <v>1815</v>
-      </c>
-      <c r="B1095"/>
+        <v>2068</v>
+      </c>
+      <c r="B1095" t="s">
+        <v>2069</v>
+      </c>
       <c r="C1095"/>
       <c r="D1095" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E1095" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="1096" spans="1:5">
       <c r="A1096" t="s">
-        <v>1816</v>
-      </c>
-      <c r="B1096"/>
+        <v>2070</v>
+      </c>
+      <c r="B1096" t="s">
+        <v>2071</v>
+      </c>
       <c r="C1096"/>
       <c r="D1096" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E1096" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="1097" spans="1:5">
       <c r="A1097" t="s">
-        <v>1817</v>
-      </c>
-      <c r="B1097"/>
+        <v>2072</v>
+      </c>
+      <c r="B1097" t="s">
+        <v>261</v>
+      </c>
       <c r="C1097"/>
       <c r="D1097" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E1097" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="1098" spans="1:5">
       <c r="A1098" t="s">
-        <v>1818</v>
-      </c>
-      <c r="B1098"/>
+        <v>2073</v>
+      </c>
+      <c r="B1098" t="s">
+        <v>2074</v>
+      </c>
       <c r="C1098"/>
       <c r="D1098" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E1098" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="1099" spans="1:5">
       <c r="A1099" t="s">
-        <v>1819</v>
-      </c>
-      <c r="B1099"/>
+        <v>2075</v>
+      </c>
+      <c r="B1099" t="s">
+        <v>2076</v>
+      </c>
       <c r="C1099"/>
       <c r="D1099" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E1099" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="1100" spans="1:5">
       <c r="A1100" t="s">
-        <v>1820</v>
-      </c>
-      <c r="B1100"/>
+        <v>2077</v>
+      </c>
+      <c r="B1100" t="s">
+        <v>2078</v>
+      </c>
       <c r="C1100"/>
       <c r="D1100" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E1100" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="1101" spans="1:5">
       <c r="A1101" t="s">
-        <v>1821</v>
-      </c>
-      <c r="B1101"/>
+        <v>2079</v>
+      </c>
+      <c r="B1101" t="s">
+        <v>2080</v>
+      </c>
       <c r="C1101"/>
       <c r="D1101" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E1101" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="1102" spans="1:5">
       <c r="A1102" t="s">
-        <v>1822</v>
-      </c>
-      <c r="B1102"/>
+        <v>2081</v>
+      </c>
+      <c r="B1102" t="s">
+        <v>2082</v>
+      </c>
       <c r="C1102"/>
       <c r="D1102" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E1102" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="1103" spans="1:5">
       <c r="A1103" t="s">
-        <v>1823</v>
-      </c>
-      <c r="B1103"/>
+        <v>2083</v>
+      </c>
+      <c r="B1103" t="s">
+        <v>139</v>
+      </c>
       <c r="C1103"/>
       <c r="D1103" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E1103" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="1104" spans="1:5">
       <c r="A1104" t="s">
-        <v>1824</v>
-      </c>
-      <c r="B1104"/>
+        <v>2084</v>
+      </c>
+      <c r="B1104" t="s">
+        <v>2085</v>
+      </c>
       <c r="C1104"/>
       <c r="D1104" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E1104" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="1105" spans="1:5">
       <c r="A1105" t="s">
-        <v>1825</v>
-      </c>
-      <c r="B1105"/>
+        <v>2086</v>
+      </c>
+      <c r="B1105" t="s">
+        <v>2087</v>
+      </c>
       <c r="C1105"/>
       <c r="D1105" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E1105" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="1106" spans="1:5">
       <c r="A1106" t="s">
-        <v>1826</v>
-      </c>
-      <c r="B1106"/>
+        <v>2088</v>
+      </c>
+      <c r="B1106" t="s">
+        <v>2089</v>
+      </c>
       <c r="C1106"/>
       <c r="D1106" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E1106" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="1107" spans="1:5">
       <c r="A1107" t="s">
-        <v>1827</v>
-      </c>
-      <c r="B1107"/>
+        <v>2090</v>
+      </c>
+      <c r="B1107" t="s">
+        <v>2091</v>
+      </c>
       <c r="C1107"/>
       <c r="D1107" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E1107" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="1108" spans="1:5">
       <c r="A1108" t="s">
-        <v>1828</v>
-      </c>
-      <c r="B1108"/>
+        <v>2092</v>
+      </c>
+      <c r="B1108" t="s">
+        <v>2093</v>
+      </c>
       <c r="C1108"/>
       <c r="D1108" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E1108" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="1109" spans="1:5">
       <c r="A1109" t="s">
-        <v>1829</v>
-      </c>
-      <c r="B1109"/>
+        <v>2094</v>
+      </c>
+      <c r="B1109" t="s">
+        <v>2095</v>
+      </c>
       <c r="C1109"/>
       <c r="D1109" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E1109" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="1110" spans="1:5">
       <c r="A1110" t="s">
-        <v>1830</v>
-      </c>
-      <c r="B1110"/>
+        <v>2096</v>
+      </c>
+      <c r="B1110" t="s">
+        <v>1247</v>
+      </c>
       <c r="C1110"/>
       <c r="D1110" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E1110" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="1111" spans="1:5">
       <c r="A1111" t="s">
-        <v>1831</v>
-      </c>
-      <c r="B1111"/>
+        <v>2097</v>
+      </c>
+      <c r="B1111" t="s">
+        <v>2098</v>
+      </c>
       <c r="C1111"/>
       <c r="D1111" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E1111" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="1112" spans="1:5">
       <c r="A1112" t="s">
-        <v>1832</v>
-      </c>
-      <c r="B1112"/>
+        <v>2099</v>
+      </c>
+      <c r="B1112" t="s">
+        <v>2100</v>
+      </c>
       <c r="C1112"/>
       <c r="D1112" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E1112" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="1113" spans="1:5">
       <c r="A1113" t="s">
-        <v>1833</v>
-      </c>
-      <c r="B1113"/>
+        <v>2101</v>
+      </c>
+      <c r="B1113" t="s">
+        <v>2102</v>
+      </c>
       <c r="C1113"/>
       <c r="D1113" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E1113" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="1114" spans="1:5">
       <c r="A1114" t="s">
-        <v>1834</v>
-      </c>
-      <c r="B1114"/>
+        <v>2103</v>
+      </c>
+      <c r="B1114" t="s">
+        <v>2104</v>
+      </c>
       <c r="C1114"/>
       <c r="D1114" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E1114" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="1115" spans="1:5">
       <c r="A1115" t="s">
-        <v>1835</v>
-      </c>
-      <c r="B1115"/>
+        <v>2105</v>
+      </c>
+      <c r="B1115" t="s">
+        <v>2106</v>
+      </c>
       <c r="C1115"/>
       <c r="D1115" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E1115" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="1116" spans="1:5">
       <c r="A1116" t="s">
-        <v>1836</v>
-      </c>
-      <c r="B1116"/>
+        <v>2107</v>
+      </c>
+      <c r="B1116" t="s">
+        <v>2108</v>
+      </c>
       <c r="C1116"/>
       <c r="D1116" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E1116" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="1117" spans="1:5">
       <c r="A1117" t="s">
-        <v>1837</v>
-      </c>
-      <c r="B1117"/>
+        <v>2109</v>
+      </c>
+      <c r="B1117" t="s">
+        <v>2110</v>
+      </c>
       <c r="C1117"/>
       <c r="D1117" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E1117" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="1118" spans="1:5">
       <c r="A1118" t="s">
-        <v>1838</v>
-      </c>
-      <c r="B1118"/>
+        <v>2111</v>
+      </c>
+      <c r="B1118" t="s">
+        <v>2112</v>
+      </c>
       <c r="C1118"/>
       <c r="D1118" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E1118" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="1119" spans="1:5">
       <c r="A1119" t="s">
-        <v>1839</v>
-      </c>
-      <c r="B1119"/>
+        <v>2113</v>
+      </c>
+      <c r="B1119" t="s">
+        <v>2114</v>
+      </c>
       <c r="C1119"/>
       <c r="D1119" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E1119" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="1120" spans="1:5">
       <c r="A1120" t="s">
-        <v>1840</v>
-      </c>
-      <c r="B1120"/>
+        <v>2115</v>
+      </c>
+      <c r="B1120" t="s">
+        <v>2116</v>
+      </c>
       <c r="C1120"/>
       <c r="D1120" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E1120" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="1121" spans="1:5">
       <c r="A1121" t="s">
-        <v>1841</v>
-      </c>
-      <c r="B1121"/>
+        <v>2117</v>
+      </c>
+      <c r="B1121" t="s">
+        <v>2118</v>
+      </c>
       <c r="C1121"/>
       <c r="D1121" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E1121" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="1122" spans="1:5">
       <c r="A1122" t="s">
-        <v>1842</v>
-      </c>
-      <c r="B1122"/>
+        <v>2119</v>
+      </c>
+      <c r="B1122" t="s">
+        <v>2120</v>
+      </c>
       <c r="C1122"/>
       <c r="D1122" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E1122" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="1123" spans="1:5">
       <c r="A1123" t="s">
-        <v>1843</v>
-      </c>
-      <c r="B1123"/>
+        <v>2121</v>
+      </c>
+      <c r="B1123" t="s">
+        <v>2122</v>
+      </c>
       <c r="C1123"/>
       <c r="D1123" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E1123" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="1124" spans="1:5">
       <c r="A1124" t="s">
-        <v>1844</v>
-      </c>
-      <c r="B1124"/>
+        <v>2123</v>
+      </c>
+      <c r="B1124" t="s">
+        <v>2124</v>
+      </c>
       <c r="C1124"/>
       <c r="D1124" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E1124" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="1125" spans="1:5">
       <c r="A1125" t="s">
-        <v>1845</v>
-      </c>
-      <c r="B1125"/>
+        <v>2125</v>
+      </c>
+      <c r="B1125" t="s">
+        <v>83</v>
+      </c>
       <c r="C1125"/>
       <c r="D1125" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E1125" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="1126" spans="1:5">
       <c r="A1126" t="s">
-        <v>1846</v>
-      </c>
-      <c r="B1126"/>
+        <v>2126</v>
+      </c>
+      <c r="B1126" t="s">
+        <v>2127</v>
+      </c>
       <c r="C1126"/>
       <c r="D1126" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E1126" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="1127" spans="1:5">
       <c r="A1127" t="s">
-        <v>1847</v>
-      </c>
-      <c r="B1127"/>
+        <v>2128</v>
+      </c>
+      <c r="B1127" t="s">
+        <v>2129</v>
+      </c>
       <c r="C1127"/>
       <c r="D1127" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E1127" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="1128" spans="1:5">
       <c r="A1128" t="s">
-        <v>1848</v>
-      </c>
-      <c r="B1128"/>
+        <v>2130</v>
+      </c>
+      <c r="B1128" t="s">
+        <v>2131</v>
+      </c>
       <c r="C1128"/>
       <c r="D1128" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E1128" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="1129" spans="1:5">
       <c r="A1129" t="s">
-        <v>1849</v>
-      </c>
-      <c r="B1129"/>
+        <v>2132</v>
+      </c>
+      <c r="B1129" t="s">
+        <v>2133</v>
+      </c>
       <c r="C1129"/>
       <c r="D1129" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E1129" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="1130" spans="1:5">
       <c r="A1130" t="s">
-        <v>1850</v>
-      </c>
-      <c r="B1130"/>
+        <v>2134</v>
+      </c>
+      <c r="B1130" t="s">
+        <v>2135</v>
+      </c>
       <c r="C1130"/>
       <c r="D1130" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E1130" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="1131" spans="1:5">
       <c r="A1131" t="s">
-        <v>1851</v>
-      </c>
-      <c r="B1131"/>
+        <v>2136</v>
+      </c>
+      <c r="B1131" t="s">
+        <v>2137</v>
+      </c>
       <c r="C1131"/>
       <c r="D1131" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E1131" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="1132" spans="1:5">
       <c r="A1132" t="s">
-        <v>1852</v>
-      </c>
-      <c r="B1132"/>
+        <v>2138</v>
+      </c>
+      <c r="B1132" t="s">
+        <v>2139</v>
+      </c>
       <c r="C1132"/>
       <c r="D1132" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E1132" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="1133" spans="1:5">
       <c r="A1133" t="s">
-        <v>1853</v>
-      </c>
-      <c r="B1133"/>
+        <v>2140</v>
+      </c>
+      <c r="B1133" t="s">
+        <v>2141</v>
+      </c>
       <c r="C1133"/>
       <c r="D1133" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E1133" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="1134" spans="1:5">
       <c r="A1134" t="s">
-        <v>1854</v>
-      </c>
-      <c r="B1134"/>
+        <v>2142</v>
+      </c>
+      <c r="B1134" t="s">
+        <v>2143</v>
+      </c>
       <c r="C1134"/>
       <c r="D1134" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E1134" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="1135" spans="1:5">
       <c r="A1135" t="s">
-        <v>1855</v>
-      </c>
-      <c r="B1135"/>
+        <v>2144</v>
+      </c>
+      <c r="B1135" t="s">
+        <v>2145</v>
+      </c>
       <c r="C1135"/>
       <c r="D1135" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E1135" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="1136" spans="1:5">
       <c r="A1136" t="s">
-        <v>1856</v>
-      </c>
-      <c r="B1136"/>
+        <v>2146</v>
+      </c>
+      <c r="B1136" t="s">
+        <v>85</v>
+      </c>
       <c r="C1136"/>
       <c r="D1136" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E1136" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="1137" spans="1:5">
       <c r="A1137" t="s">
-        <v>1857</v>
-      </c>
-      <c r="B1137"/>
+        <v>2147</v>
+      </c>
+      <c r="B1137" t="s">
+        <v>2122</v>
+      </c>
       <c r="C1137"/>
       <c r="D1137" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E1137" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="1138" spans="1:5">
       <c r="A1138" t="s">
-        <v>1858</v>
-      </c>
-      <c r="B1138"/>
+        <v>2148</v>
+      </c>
+      <c r="B1138" t="s">
+        <v>2149</v>
+      </c>
       <c r="C1138"/>
       <c r="D1138" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E1138" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="1139" spans="1:5">
       <c r="A1139" t="s">
-        <v>1859</v>
-      </c>
-      <c r="B1139"/>
+        <v>2150</v>
+      </c>
+      <c r="B1139" t="s">
+        <v>665</v>
+      </c>
       <c r="C1139"/>
       <c r="D1139" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E1139" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="1140" spans="1:5">
       <c r="A1140" t="s">
-        <v>1860</v>
-      </c>
-      <c r="B1140"/>
+        <v>2151</v>
+      </c>
+      <c r="B1140" t="s">
+        <v>2152</v>
+      </c>
       <c r="C1140"/>
       <c r="D1140" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E1140" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="1141" spans="1:5">
       <c r="A1141" t="s">
-        <v>1861</v>
-      </c>
-      <c r="B1141"/>
+        <v>2153</v>
+      </c>
+      <c r="B1141" t="s">
+        <v>2154</v>
+      </c>
       <c r="C1141"/>
       <c r="D1141" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E1141" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="1142" spans="1:5">
       <c r="A1142" t="s">
-        <v>1862</v>
-      </c>
-      <c r="B1142"/>
+        <v>2155</v>
+      </c>
+      <c r="B1142" t="s">
+        <v>2156</v>
+      </c>
       <c r="C1142"/>
       <c r="D1142" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E1142" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="1143" spans="1:5">
       <c r="A1143" t="s">
-        <v>1863</v>
-      </c>
-      <c r="B1143"/>
+        <v>2157</v>
+      </c>
+      <c r="B1143" t="s">
+        <v>2158</v>
+      </c>
       <c r="C1143"/>
       <c r="D1143" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E1143" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="1144" spans="1:5">
       <c r="A1144" t="s">
-        <v>1864</v>
-      </c>
-      <c r="B1144"/>
+        <v>2159</v>
+      </c>
+      <c r="B1144" t="s">
+        <v>2160</v>
+      </c>
       <c r="C1144"/>
       <c r="D1144" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E1144" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="1145" spans="1:5">
       <c r="A1145" t="s">
-        <v>1865</v>
-      </c>
-      <c r="B1145"/>
+        <v>2161</v>
+      </c>
+      <c r="B1145" t="s">
+        <v>2162</v>
+      </c>
       <c r="C1145"/>
       <c r="D1145" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E1145" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="1146" spans="1:5">
       <c r="A1146" t="s">
-        <v>1866</v>
-      </c>
-      <c r="B1146"/>
+        <v>2163</v>
+      </c>
+      <c r="B1146" t="s">
+        <v>2164</v>
+      </c>
       <c r="C1146"/>
       <c r="D1146" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E1146" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="1147" spans="1:5">
       <c r="A1147" t="s">
-        <v>1867</v>
-      </c>
-      <c r="B1147"/>
+        <v>2165</v>
+      </c>
+      <c r="B1147" t="s">
+        <v>87</v>
+      </c>
       <c r="C1147"/>
       <c r="D1147" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E1147" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="1148" spans="1:5">
       <c r="A1148" t="s">
-        <v>1868</v>
-      </c>
-      <c r="B1148"/>
+        <v>2166</v>
+      </c>
+      <c r="B1148" t="s">
+        <v>2167</v>
+      </c>
       <c r="C1148"/>
       <c r="D1148" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E1148" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="1149" spans="1:5">
       <c r="A1149" t="s">
-        <v>1869</v>
-      </c>
-      <c r="B1149"/>
+        <v>2168</v>
+      </c>
+      <c r="B1149" t="s">
+        <v>2169</v>
+      </c>
       <c r="C1149"/>
       <c r="D1149" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E1149" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="1150" spans="1:5">
       <c r="A1150" t="s">
-        <v>1870</v>
-      </c>
-      <c r="B1150"/>
+        <v>2170</v>
+      </c>
+      <c r="B1150" t="s">
+        <v>2171</v>
+      </c>
       <c r="C1150"/>
       <c r="D1150" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E1150" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="1151" spans="1:5">
       <c r="A1151" t="s">
-        <v>1871</v>
-      </c>
-      <c r="B1151"/>
+        <v>2172</v>
+      </c>
+      <c r="B1151" t="s">
+        <v>2173</v>
+      </c>
       <c r="C1151"/>
       <c r="D1151" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E1151" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="1152" spans="1:5">
       <c r="A1152" t="s">
-        <v>1872</v>
-      </c>
-      <c r="B1152"/>
+        <v>2174</v>
+      </c>
+      <c r="B1152" t="s">
+        <v>2175</v>
+      </c>
       <c r="C1152"/>
       <c r="D1152" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E1152" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="1153" spans="1:5">
       <c r="A1153" t="s">
-        <v>1873</v>
-      </c>
-      <c r="B1153"/>
+        <v>2176</v>
+      </c>
+      <c r="B1153" t="s">
+        <v>1107</v>
+      </c>
       <c r="C1153"/>
       <c r="D1153" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E1153" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="1154" spans="1:5">
       <c r="A1154" t="s">
-        <v>1874</v>
-      </c>
-      <c r="B1154"/>
+        <v>2177</v>
+      </c>
+      <c r="B1154" t="s">
+        <v>2178</v>
+      </c>
       <c r="C1154"/>
       <c r="D1154" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E1154" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="1155" spans="1:5">
       <c r="A1155" t="s">
-        <v>1875</v>
-      </c>
-      <c r="B1155"/>
+        <v>2179</v>
+      </c>
+      <c r="B1155" t="s">
+        <v>2180</v>
+      </c>
       <c r="C1155"/>
       <c r="D1155" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E1155" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="1156" spans="1:5">
       <c r="A1156" t="s">
-        <v>1876</v>
-      </c>
-      <c r="B1156"/>
+        <v>2181</v>
+      </c>
+      <c r="B1156" t="s">
+        <v>2182</v>
+      </c>
       <c r="C1156"/>
       <c r="D1156" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E1156" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="1157" spans="1:5">
       <c r="A1157" t="s">
-        <v>1877</v>
-      </c>
-      <c r="B1157"/>
+        <v>2183</v>
+      </c>
+      <c r="B1157" t="s">
+        <v>721</v>
+      </c>
       <c r="C1157"/>
       <c r="D1157" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E1157" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="1158" spans="1:5">
       <c r="A1158" t="s">
-        <v>1878</v>
-      </c>
-      <c r="B1158"/>
+        <v>2184</v>
+      </c>
+      <c r="B1158" t="s">
+        <v>89</v>
+      </c>
       <c r="C1158"/>
       <c r="D1158" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E1158" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="1159" spans="1:5">
       <c r="A1159" t="s">
-        <v>1879</v>
-      </c>
-      <c r="B1159"/>
+        <v>2185</v>
+      </c>
+      <c r="B1159" t="s">
+        <v>2186</v>
+      </c>
       <c r="C1159"/>
       <c r="D1159" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E1159" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="1160" spans="1:5">
       <c r="A1160" t="s">
-        <v>1880</v>
-      </c>
-      <c r="B1160"/>
+        <v>2187</v>
+      </c>
+      <c r="B1160" t="s">
+        <v>2188</v>
+      </c>
       <c r="C1160"/>
       <c r="D1160" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E1160" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="1161" spans="1:5">
       <c r="A1161" t="s">
-        <v>1881</v>
-      </c>
-      <c r="B1161"/>
+        <v>2189</v>
+      </c>
+      <c r="B1161" t="s">
+        <v>2190</v>
+      </c>
       <c r="C1161"/>
       <c r="D1161" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E1161" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="1162" spans="1:5">
       <c r="A1162" t="s">
-        <v>1882</v>
-      </c>
-      <c r="B1162"/>
+        <v>2191</v>
+      </c>
+      <c r="B1162" t="s">
+        <v>2192</v>
+      </c>
       <c r="C1162"/>
       <c r="D1162" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E1162" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="1163" spans="1:5">
       <c r="A1163" t="s">
-        <v>1883</v>
-      </c>
-      <c r="B1163"/>
+        <v>2193</v>
+      </c>
+      <c r="B1163" t="s">
+        <v>2194</v>
+      </c>
       <c r="C1163"/>
       <c r="D1163" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E1163" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="1164" spans="1:5">
       <c r="A1164" t="s">
-        <v>1884</v>
-      </c>
-      <c r="B1164"/>
+        <v>2195</v>
+      </c>
+      <c r="B1164" t="s">
+        <v>2196</v>
+      </c>
       <c r="C1164"/>
       <c r="D1164" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E1164" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="1165" spans="1:5">
       <c r="A1165" t="s">
-        <v>1885</v>
-      </c>
-      <c r="B1165"/>
+        <v>2197</v>
+      </c>
+      <c r="B1165" t="s">
+        <v>250</v>
+      </c>
       <c r="C1165"/>
       <c r="D1165" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E1165" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="1166" spans="1:5">
       <c r="A1166" t="s">
-        <v>1886</v>
-      </c>
-      <c r="B1166"/>
+        <v>2198</v>
+      </c>
+      <c r="B1166" t="s">
+        <v>2199</v>
+      </c>
       <c r="C1166"/>
       <c r="D1166" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E1166" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="1167" spans="1:5">
       <c r="A1167" t="s">
-        <v>1887</v>
-      </c>
-      <c r="B1167"/>
+        <v>2200</v>
+      </c>
+      <c r="B1167" t="s">
+        <v>2201</v>
+      </c>
       <c r="C1167"/>
       <c r="D1167" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E1167" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="1168" spans="1:5">
       <c r="A1168" t="s">
-        <v>1888</v>
-      </c>
-      <c r="B1168"/>
+        <v>2202</v>
+      </c>
+      <c r="B1168" t="s">
+        <v>2203</v>
+      </c>
       <c r="C1168"/>
       <c r="D1168" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E1168" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="1169" spans="1:5">
       <c r="A1169" t="s">
-        <v>1889</v>
-      </c>
-      <c r="B1169"/>
+        <v>2204</v>
+      </c>
+      <c r="B1169" t="s">
+        <v>2205</v>
+      </c>
       <c r="C1169"/>
       <c r="D1169" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E1169" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="1170" spans="1:5">
       <c r="A1170" t="s">
-        <v>1890</v>
-      </c>
-      <c r="B1170"/>
+        <v>2206</v>
+      </c>
+      <c r="B1170" t="s">
+        <v>2207</v>
+      </c>
       <c r="C1170"/>
       <c r="D1170" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E1170" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="1171" spans="1:5">
       <c r="A1171" t="s">
-        <v>1891</v>
-      </c>
-      <c r="B1171"/>
+        <v>2208</v>
+      </c>
+      <c r="B1171" t="s">
+        <v>2209</v>
+      </c>
       <c r="C1171"/>
       <c r="D1171" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E1171" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="1172" spans="1:5">
       <c r="A1172" t="s">
-        <v>1892</v>
-      </c>
-      <c r="B1172"/>
+        <v>2210</v>
+      </c>
+      <c r="B1172" t="s">
+        <v>2211</v>
+      </c>
       <c r="C1172"/>
       <c r="D1172" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E1172" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="1173" spans="1:5">
       <c r="A1173" t="s">
-        <v>1893</v>
-      </c>
-      <c r="B1173"/>
+        <v>2212</v>
+      </c>
+      <c r="B1173" t="s">
+        <v>2213</v>
+      </c>
       <c r="C1173"/>
       <c r="D1173" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E1173" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="1174" spans="1:5">
       <c r="A1174" t="s">
-        <v>1894</v>
-      </c>
-      <c r="B1174"/>
+        <v>2214</v>
+      </c>
+      <c r="B1174" t="s">
+        <v>2215</v>
+      </c>
       <c r="C1174"/>
       <c r="D1174" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E1174" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="1175" spans="1:5">
       <c r="A1175" t="s">
-        <v>1895</v>
-      </c>
-      <c r="B1175"/>
+        <v>2216</v>
+      </c>
+      <c r="B1175" t="s">
+        <v>859</v>
+      </c>
       <c r="C1175"/>
       <c r="D1175" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E1175" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="1176" spans="1:5">
       <c r="A1176" t="s">
-        <v>1896</v>
-      </c>
-      <c r="B1176"/>
+        <v>2217</v>
+      </c>
+      <c r="B1176" t="s">
+        <v>2218</v>
+      </c>
       <c r="C1176"/>
       <c r="D1176" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E1176" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="1177" spans="1:5">
       <c r="A1177" t="s">
-        <v>1897</v>
-      </c>
-      <c r="B1177"/>
+        <v>2219</v>
+      </c>
+      <c r="B1177" t="s">
+        <v>2220</v>
+      </c>
       <c r="C1177"/>
       <c r="D1177" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E1177" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="1178" spans="1:5">
       <c r="A1178" t="s">
-        <v>1898</v>
-      </c>
-      <c r="B1178"/>
+        <v>2221</v>
+      </c>
+      <c r="B1178" t="s">
+        <v>2222</v>
+      </c>
       <c r="C1178"/>
       <c r="D1178" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E1178" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="1179" spans="1:5">
       <c r="A1179" t="s">
-        <v>1899</v>
-      </c>
-      <c r="B1179"/>
+        <v>2223</v>
+      </c>
+      <c r="B1179" t="s">
+        <v>2224</v>
+      </c>
       <c r="C1179"/>
       <c r="D1179" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E1179" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="1180" spans="1:5">
       <c r="A1180" t="s">
-        <v>1900</v>
-      </c>
-      <c r="B1180"/>
+        <v>2225</v>
+      </c>
+      <c r="B1180" t="s">
+        <v>2226</v>
+      </c>
       <c r="C1180"/>
       <c r="D1180" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E1180" t="s">
-        <v>1901</v>
+        <v>2227</v>
       </c>
     </row>
     <row r="1181" spans="1:5">
       <c r="A1181" t="s">
-        <v>1902</v>
-      </c>
-      <c r="B1181"/>
+        <v>2228</v>
+      </c>
+      <c r="B1181" t="s">
+        <v>2229</v>
+      </c>
       <c r="C1181"/>
       <c r="D1181" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E1181" t="s">
-        <v>1901</v>
+        <v>2227</v>
       </c>
     </row>
     <row r="1182" spans="1:5">
       <c r="A1182" t="s">
-        <v>1903</v>
-      </c>
-      <c r="B1182"/>
+        <v>2230</v>
+      </c>
+      <c r="B1182" t="s">
+        <v>2231</v>
+      </c>
       <c r="C1182"/>
       <c r="D1182" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E1182" t="s">
-        <v>1901</v>
+        <v>2227</v>
       </c>
     </row>
     <row r="1183" spans="1:5">
       <c r="A1183" t="s">
-        <v>1904</v>
-      </c>
-      <c r="B1183"/>
+        <v>2232</v>
+      </c>
+      <c r="B1183" t="s">
+        <v>2233</v>
+      </c>
       <c r="C1183"/>
       <c r="D1183" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E1183" t="s">
-        <v>1901</v>
+        <v>2227</v>
       </c>
     </row>
     <row r="1184" spans="1:5">
       <c r="A1184" t="s">
-        <v>1905</v>
-      </c>
-      <c r="B1184"/>
+        <v>2234</v>
+      </c>
+      <c r="B1184" t="s">
+        <v>2235</v>
+      </c>
       <c r="C1184"/>
       <c r="D1184" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E1184" t="s">
-        <v>1901</v>
+        <v>2227</v>
       </c>
     </row>
     <row r="1185" spans="1:5">
       <c r="A1185" t="s">
-        <v>1906</v>
-      </c>
-      <c r="B1185"/>
+        <v>2236</v>
+      </c>
+      <c r="B1185" t="s">
+        <v>2237</v>
+      </c>
       <c r="C1185"/>
       <c r="D1185" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E1185" t="s">
-        <v>1901</v>
+        <v>2227</v>
       </c>
     </row>
     <row r="1186" spans="1:5">
       <c r="A1186" t="s">
-        <v>1907</v>
-      </c>
-      <c r="B1186"/>
+        <v>2238</v>
+      </c>
+      <c r="B1186" t="s">
+        <v>2239</v>
+      </c>
       <c r="C1186"/>
       <c r="D1186" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E1186" t="s">
-        <v>1901</v>
+        <v>2227</v>
       </c>
     </row>
     <row r="1187" spans="1:5">
       <c r="A1187" t="s">
-        <v>1908</v>
-      </c>
-      <c r="B1187"/>
+        <v>2240</v>
+      </c>
+      <c r="B1187" t="s">
+        <v>409</v>
+      </c>
       <c r="C1187"/>
       <c r="D1187" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E1187" t="s">
-        <v>1901</v>
+        <v>2227</v>
       </c>
     </row>
     <row r="1188" spans="1:5">
       <c r="A1188" t="s">
-        <v>1909</v>
-      </c>
-      <c r="B1188"/>
+        <v>2241</v>
+      </c>
+      <c r="B1188" t="s">
+        <v>611</v>
+      </c>
       <c r="C1188"/>
       <c r="D1188" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E1188" t="s">
-        <v>1901</v>
+        <v>2227</v>
       </c>
     </row>
     <row r="1189" spans="1:5">
       <c r="A1189" t="s">
-        <v>1910</v>
-      </c>
-      <c r="B1189"/>
+        <v>2242</v>
+      </c>
+      <c r="B1189" t="s">
+        <v>2243</v>
+      </c>
       <c r="C1189"/>
       <c r="D1189" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="E1189" t="s">
-        <v>1901</v>
+        <v>2227</v>
       </c>
     </row>
   </sheetData>

--- a/DE.xlsx
+++ b/DE.xlsx
@@ -246,19 +246,19 @@
     <t>AlarmStandingWaterMeters</t>
   </si>
   <si>
-    <t>Alarm stehende Wasserzähler</t>
+    <t>Ereignis mit niedrigem Wasserverbrauch</t>
   </si>
   <si>
     <t>AlarmStandingWaterMetersMaxValue</t>
   </si>
   <si>
-    <t>Maximales zulässiges Volumen in den festgelegten Stillstandstagen</t>
+    <t>Gesamtwasserverbrauch unterhalb dessen Ereignis generiert wird *</t>
   </si>
   <si>
     <t>AlarmStandingWaterMetersMaxValueInfo</t>
   </si>
   <si>
-    <t>Es handelt es sich um den maximalen Volumenwert, bei dem das Ereignis generiert wird, d. h. das Ereignis wird NICHT generiert, wenn der ausgewählte Wert überschritten wird.</t>
+    <t>* bezieht sich auf den oben genannten Zeitraum</t>
   </si>
   <si>
     <t>AlarmType</t>
@@ -1054,7 +1054,7 @@
     <t>DaysStopover</t>
   </si>
   <si>
-    <t>Anzahl Stillstandtage</t>
+    <t>Zeitraum in Tagen, für den der Gesamtwasserverbrauch überprüft wird</t>
   </si>
   <si>
     <t>DefaultDeviceTypeFor</t>
@@ -1768,7 +1768,7 @@
     <t>GenerateAlarmStandingWaterMeters</t>
   </si>
   <si>
-    <t>Alarm für stehende Wasserzähler generieren</t>
+    <t>Ereignis mit niedrigem Wasserverbrauch erzeugen</t>
   </si>
   <si>
     <t>GetMeasurementPointNameFromRadioNumberIfNoteEmpty</t>
